--- a/data/HR1/Market Data/cs1_market_data_2030.xlsx
+++ b/data/HR1/Market Data/cs1_market_data_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1\market data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9932D164-1202-47D6-A711-898CE0D0A762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A674982C-4C82-4F73-97AE-112BF1071F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1950" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="5" r:id="rId1"/>
@@ -116,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -126,7 +126,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,7 +144,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1203,7 +1202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1230,7 +1229,7 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>1</v>
       </c>
       <c r="D1" s="4">

--- a/data/HR1/Market Data/cs1_market_data_2030.xlsx
+++ b/data/HR1/Market Data/cs1_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A674982C-4C82-4F73-97AE-112BF1071F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB26669-F01C-4B1A-99D9-AE747FCB09B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
@@ -146,6 +146,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Market Costs, Summer"/>
@@ -155,12 +158,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1.2500000000000001E-2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.2500000000000001E-2</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1418,99 +1421,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>222.33410859252177</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>216.71663679773883</v>
+        <v>191.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.11272452364699</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.70677604056331</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>244.11759087561387</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>246.60858670087524</v>
+        <v>217.8</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>239.13559922509114</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>234.15360757456841</v>
+        <v>206.8</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>229.17161592404565</v>
+        <v>202.4</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>219.20763262300022</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.53389005647949</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1519,99 +1522,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.21740316289566</v>
+        <v>186.54318174524218</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.51435892385359</v>
+        <v>179.74</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.51435892385359</v>
+        <v>179.74</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>205.88080495785186</v>
+        <v>181.82999999999998</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.51435892385359</v>
+        <v>179.74</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.51435892385359</v>
+        <v>179.74</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>218.6070882974646</v>
+        <v>193.06961070637698</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.77143723853513</v>
+        <v>200.28020796559579</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>236.64460339982978</v>
+        <v>209.00000000000003</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.91171133183317</v>
+        <v>204.82000000000002</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>234.27815736583145</v>
+        <v>206.91</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>236.64460339982978</v>
+        <v>209.00000000000003</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>227.17881926383657</v>
+        <v>200.64000000000001</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.9801430598468</v>
+        <v>188.10000000000002</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.34658909384507</v>
+        <v>190.19</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.07948116184167</v>
+        <v>194.37</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>222.44592719583997</v>
+        <v>196.46</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.07948116184167</v>
+        <v>194.37</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.34658909384507</v>
+        <v>190.19</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.34658909384507</v>
+        <v>190.19</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.71303512784337</v>
+        <v>192.28</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.07948116184167</v>
+        <v>194.37</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.24725099185019</v>
+        <v>183.92000000000002</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.5571955536555</v>
+        <v>167.41329952822622</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1620,99 +1623,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>222.33410859252177</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>216.71663679773883</v>
+        <v>191.4</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.11272452364699</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.70677604056331</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>244.11759087561387</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>246.60858670087524</v>
+        <v>217.8</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>239.13559922509114</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>234.15360757456841</v>
+        <v>206.8</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>229.17161592404565</v>
+        <v>202.4</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>219.20763262300022</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.53389005647949</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1721,99 +1724,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>233.45081402214788</v>
+        <v>206.17930613947823</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.93692302110136</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.93692302110136</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>227.55246863762579</v>
+        <v>200.97000000000003</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.93692302110136</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.93692302110136</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>241.61836074982935</v>
+        <v>213.39272762283775</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>250.6421148425915</v>
+        <v>221.36233511986907</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.55456165244345</v>
+        <v>231.00000000000003</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.3234704193946</v>
+        <v>226.38000000000002</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>258.939016035919</v>
+        <v>228.69000000000003</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.55456165244345</v>
+        <v>231.00000000000003</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>251.09237918634568</v>
+        <v>221.76000000000002</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.39910548719911</v>
+        <v>207.90000000000003</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.01465110372354</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.24574233677242</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>245.86128795329682</v>
+        <v>217.14000000000001</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.24574233677242</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.01465110372354</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.01465110372354</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>240.63019672024794</v>
+        <v>212.52</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.24574233677242</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.16801425415022</v>
+        <v>203.28000000000003</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.51058455930348</v>
+        <v>185.03575211014481</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1822,99 +1825,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>244.56751945177399</v>
+        <v>215.99736833659625</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.64820506972524</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.64820506972524</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.38830047751273</v>
+        <v>210.54000000000002</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.64820506972524</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.64820506972524</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>253.12399697601168</v>
+        <v>223.55428608106811</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.57745364461965</v>
+        <v>231.90339869700568</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.00954077875031</v>
+        <v>242.00000000000006</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>268.52934996317532</v>
+        <v>237.16000000000005</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>271.26944537096279</v>
+        <v>239.58000000000004</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.00954077875031</v>
+        <v>242.00000000000006</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>263.04915914760028</v>
+        <v>232.32000000000005</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>246.60858670087526</v>
+        <v>217.80000000000004</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.34868210866276</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>254.82887292423774</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>257.56896833202524</v>
+        <v>227.48000000000002</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>254.82887292423774</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.34868210866276</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.34868210866276</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>252.08877751645025</v>
+        <v>222.64000000000001</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>254.82887292423774</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>241.12839588530025</v>
+        <v>212.96000000000004</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>219.48727906212747</v>
+        <v>193.84697840110408</v>
       </c>
     </row>
   </sheetData>
@@ -2018,99 +2021,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.90972521206325</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>177.31361192542266</v>
+        <v>156.6</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.27404733752934</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>195.30554403318814</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.73257435277498</v>
+        <v>176.4</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>201.77066184617064</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>195.65639936598365</v>
+        <v>172.8</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>183.42787440560966</v>
+        <v>162</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.58022437919234</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>187.50404939240099</v>
+        <v>165.6</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.35169941881836</v>
+        <v>158.4</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.25500095530137</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2119,99 +2122,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.81423895146008</v>
+        <v>152.62623960974358</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.51174821042565</v>
+        <v>147.06</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.51174821042565</v>
+        <v>147.06</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>168.44793132915152</v>
+        <v>148.76999999999998</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.51174821042565</v>
+        <v>147.06</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.51174821042565</v>
+        <v>147.06</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.86034497065285</v>
+        <v>157.96604512339934</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.54026683152873</v>
+        <v>163.86562469912383</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.61831187258798</v>
+        <v>171</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.7459456351362</v>
+        <v>167.57999999999998</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.68212875386212</v>
+        <v>169.29000000000002</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.61831187258798</v>
+        <v>171</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.87357939768447</v>
+        <v>164.16</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>174.25648068532919</v>
+        <v>153.9</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.19266380405509</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.06503004150682</v>
+        <v>159.03</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>182.00121316023271</v>
+        <v>160.74</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.06503004150682</v>
+        <v>159.03</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.19266380405509</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.19266380405509</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.12884692278092</v>
+        <v>157.32</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.06503004150682</v>
+        <v>159.03</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.38411444787741</v>
+        <v>150.47999999999999</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.09225090753631</v>
+        <v>136.97451779582144</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2220,99 +2223,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.90972521206325</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>177.31361192542266</v>
+        <v>156.6</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.27404733752934</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>195.30554403318814</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.73257435277498</v>
+        <v>176.4</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>201.77066184617064</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>195.65639936598365</v>
+        <v>172.8</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>183.42787440560966</v>
+        <v>162</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.58022437919234</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>187.50404939240099</v>
+        <v>165.6</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.35169941881836</v>
+        <v>158.4</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.25500095530137</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2321,99 +2324,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.00521147266642</v>
+        <v>168.69215956866398</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.03930065362837</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.03930065362837</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>186.17929252169381</v>
+        <v>164.43</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.03930065362837</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.03930065362837</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>197.6877497044058</v>
+        <v>174.59404987323086</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>205.07082123484759</v>
+        <v>181.11463782534742</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.9991868065446</v>
+        <v>189</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.71920307041376</v>
+        <v>185.22000000000003</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.85919493847916</v>
+        <v>187.11</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.9991868065446</v>
+        <v>189</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>205.43921933428285</v>
+        <v>181.44000000000003</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.59926812589015</v>
+        <v>170.1</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.01924373008649</v>
+        <v>175.77</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>201.15923559815195</v>
+        <v>177.66000000000003</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.01924373008649</v>
+        <v>175.77</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.73925999395561</v>
+        <v>171.99</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.73925999395561</v>
+        <v>171.99</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.87925186202102</v>
+        <v>173.88</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.01924373008649</v>
+        <v>175.77</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.31928438975928</v>
+        <v>166.32000000000002</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171.41775100306646</v>
+        <v>151.39288809011845</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -2422,99 +2425,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.10069773326961</v>
+        <v>176.72511954812418</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.80307687522975</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.80307687522975</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>195.04497311796496</v>
+        <v>172.26000000000002</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.80307687522975</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.80307687522975</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>207.10145207128227</v>
+        <v>182.90805224814662</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.836098436507</v>
+        <v>189.73914438845921</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>219.70583178805248</v>
+        <v>194.04000000000002</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.94772803078774</v>
+        <v>196.02000000000004</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.22203930258206</v>
+        <v>190.08000000000004</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>201.77066184617064</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.01255808890591</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.49635057437632</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.73824681711159</v>
+        <v>186.12000000000003</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.49635057437632</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.01255808890591</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.01255808890591</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.25445433164109</v>
+        <v>182.16</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.49635057437632</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>197.28686936070019</v>
+        <v>174.24</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.58050105083154</v>
+        <v>158.60207323726695</v>
       </c>
     </row>
   </sheetData>
@@ -2618,99 +2621,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>202.1219169022925</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>192.59396634104317</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>188.59673307736111</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>183.14596044506746</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.962884655832</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>192.79019415580569</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.19338593058814</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>217.00616003687574</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>226.45416593285142</v>
+        <v>200</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>214.70956783446937</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.83294325277728</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>190.57354661867299</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.29719871061269</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>158.3631142102389</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>164.7586874321301</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>149.40204400274806</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.35393686116464</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>144.58356099580047</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.48769756868171</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.37938382813209</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.65678430433678</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.38787952114362</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>190.6898297681619</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>181.39444550589042</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2719,99 +2722,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>192.01582105717787</v>
+        <v>169.58471067749286</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>182.964268023991</v>
+        <v>161.59055168651113</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>179.16689642349306</v>
+        <v>158.2367855194326</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>173.98866242281406</v>
+        <v>153.66346801887096</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>175.71474042304041</v>
+        <v>155.18790718572484</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>183.15068444801543</v>
+        <v>161.75519111653134</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>198.73371663405874</v>
+        <v>175.51782791488816</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>206.15585203503193</v>
+        <v>182.07291633235982</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>215.13145763620886</v>
+        <v>190</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.97408944274585</v>
+        <v>180.14602522545653</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>199.34129609013843</v>
+        <v>176.05443050162074</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>181.04486928773935</v>
+        <v>159.89537533296965</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.03233877508205</v>
+        <v>155.46840399242595</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>150.44495849972694</v>
+        <v>132.87011778298407</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>156.52075306052359</v>
+        <v>138.23614365030969</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>141.93194180261065</v>
+        <v>125.35158381206071</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>138.08624001810639</v>
+        <v>121.95513334831028</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>137.35438294601045</v>
+        <v>121.30877114156424</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.16331269024764</v>
+        <v>122.9063833884271</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>158.06041463672548</v>
+        <v>139.59594338714336</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.57394508911995</v>
+        <v>169.19445425077831</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.31848554508645</v>
+        <v>168.96883725408392</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>181.15533827975381</v>
+        <v>159.99293943964827</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>172.32472323059591</v>
+        <v>152.19390866202383</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2820,99 +2823,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>202.1219169022925</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>192.59396634104317</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>188.59673307736111</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>183.14596044506746</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.962884655832</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>192.79019415580569</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.19338593058814</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>217.00616003687574</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>226.45416593285142</v>
+        <v>200</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>214.70956783446937</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.83294325277728</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>190.57354661867299</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.29719871061269</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>158.3631142102389</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>164.7586874321301</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>149.40204400274806</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.35393686116464</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>144.58356099580047</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.48769756868171</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.37938382813209</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.65678430433678</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.38787952114362</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>190.6898297681619</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>181.39444550589042</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2921,99 +2924,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>212.22801274740715</v>
+        <v>187.43573285407109</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>202.22366465809532</v>
+        <v>178.600083442986</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>198.02656973122919</v>
+        <v>174.89328925832024</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>192.30325846732083</v>
+        <v>169.83856991559423</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>194.21102888862359</v>
+        <v>171.52347636316955</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>202.42970386359599</v>
+        <v>178.78205333932411</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>219.65305522711753</v>
+        <v>193.99338874803428</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>227.85646803871953</v>
+        <v>201.23848647260823</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.77687422949401</v>
+        <v>210</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>225.44504622619286</v>
+        <v>199.10876472287305</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>220.32459041541617</v>
+        <v>194.58647581758083</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200.10222394960664</v>
+        <v>176.72646747328224</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>194.5620586461433</v>
+        <v>171.83349914952342</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.28126992075084</v>
+        <v>146.85644597066661</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>172.99662180373662</v>
+        <v>152.78731666613177</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>156.87214620288546</v>
+        <v>138.546487371225</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>152.62163370422289</v>
+        <v>134.79251580602718</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>151.81273904559049</v>
+        <v>134.07811547225521</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>153.81208244711581</v>
+        <v>135.84389742931418</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>174.6983530195387</v>
+        <v>154.29025321736898</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>211.73962351955362</v>
+        <v>187.0043968034918</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>211.45727349720082</v>
+        <v>186.75503064925064</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200.22432125657002</v>
+        <v>176.83430148592706</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>190.46416778118495</v>
+        <v>168.2143201001316</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3022,99 +3025,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>222.33410859252177</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>211.85336297514749</v>
+        <v>187.10484932122344</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>207.45640638509727</v>
+        <v>183.22154112776408</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.46055648957423</v>
+        <v>177.92612086395587</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.45917312141523</v>
+        <v>179.69126095189193</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>212.06921357138631</v>
+        <v>187.29548445072052</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>230.11272452364699</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>238.70677604056331</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>236.18052461791632</v>
+        <v>208.59013447158128</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>230.81623757805505</v>
+        <v>203.85249847556088</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.63090128054031</v>
+        <v>185.14201354343857</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.82691858167394</v>
+        <v>180.01604672807215</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>174.19942563126278</v>
+        <v>153.84961006450789</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>181.23455617534313</v>
+        <v>160.06290317404282</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>164.34224840302286</v>
+        <v>145.14393915080714</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>159.88933054728113</v>
+        <v>141.21120703488563</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>159.04191709538051</v>
+        <v>140.46278763760071</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.13646732554989</v>
+        <v>142.3126544497577</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>183.01732221094531</v>
+        <v>161.6374081324818</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>221.82246273477048</v>
+        <v>195.90936807984858</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>221.52666747325802</v>
+        <v>195.64812734683403</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.75881274497812</v>
+        <v>185.25498250906645</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>199.53389005647949</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
   </sheetData>
@@ -3218,99 +3221,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.21219169022925</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.259396634104316</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.859673307736113</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.314596044506743</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.496288465583202</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.279019415580571</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.919338593058814</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.700616003687571</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.645416593285145</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.470956783446937</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.983294325277729</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.057354661867301</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.529719871061268</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.83631142102389</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.47586874321301</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.940204400274807</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.535393686116466</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.458356099580048</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.648769756868173</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.637938382813211</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.16567843043368</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.138787952114367</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.068982976816191</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.139444550589044</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3319,99 +3322,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.201582105717787</v>
+        <v>16.958471067749286</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.2964268023991</v>
+        <v>16.159055168651115</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.916689642349308</v>
+        <v>15.82367855194326</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.398866242281407</v>
+        <v>15.366346801887095</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.57147404230404</v>
+        <v>15.518790718572484</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.315068444801543</v>
+        <v>16.175519111653134</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.873371663405873</v>
+        <v>17.551782791488815</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.615585203503194</v>
+        <v>18.207291633235982</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.513145763620887</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.397408944274588</v>
+        <v>18.014602522545655</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.934129609013844</v>
+        <v>17.605443050162076</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.104486928773934</v>
+        <v>15.989537533296964</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.603233877508202</v>
+        <v>15.546840399242594</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.044495849972694</v>
+        <v>13.287011778298407</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.652075306052359</v>
+        <v>13.823614365030968</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.193194180261067</v>
+        <v>12.535158381206072</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.808624001810642</v>
+        <v>12.195513334831031</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.735438294601044</v>
+        <v>12.130877114156425</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.916331269024765</v>
+        <v>12.290638338842712</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.80604146367255</v>
+        <v>13.959594338714338</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.157394508911995</v>
+        <v>16.919445425077829</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.131848554508647</v>
+        <v>16.896883725408394</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.11553382797538</v>
+        <v>15.999293943964828</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.232472323059589</v>
+        <v>15.219390866202382</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3420,99 +3423,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.21219169022925</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.259396634104316</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.859673307736113</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.314596044506743</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.496288465583202</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.279019415580571</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.919338593058814</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.700616003687571</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.645416593285145</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.470956783446937</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.983294325277729</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.057354661867301</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.529719871061268</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.83631142102389</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.47586874321301</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.940204400274807</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.535393686116466</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.458356099580048</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.648769756868173</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.637938382813211</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.16567843043368</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.138787952114367</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.068982976816191</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.139444550589044</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3521,99 +3524,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.222801274740714</v>
+        <v>18.743573285407109</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.222366465809532</v>
+        <v>17.860008344298599</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.802656973122922</v>
+        <v>17.489328925832027</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.230325846732086</v>
+        <v>16.983856991559424</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.421102888862361</v>
+        <v>17.152347636316957</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.242970386359598</v>
+        <v>17.87820533393241</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.965305522711756</v>
+        <v>19.39933887480343</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.785646803871948</v>
+        <v>20.123848647260822</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.777687422949402</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.544504622619282</v>
+        <v>19.910876472287303</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.032459041541617</v>
+        <v>19.458647581758083</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.010222394960667</v>
+        <v>17.672646747328226</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.456205864614329</v>
+        <v>17.183349914952341</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.628126992075085</v>
+        <v>14.685644597066663</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.299662180373662</v>
+        <v>15.278731666613178</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.687214620288547</v>
+        <v>13.854648737122501</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.262163370422289</v>
+        <v>13.479251580602718</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.181273904559051</v>
+        <v>13.407811547225522</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.381208244711582</v>
+        <v>13.584389742931418</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.469835301953871</v>
+        <v>15.4290253217369</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.173962351955364</v>
+        <v>18.700439680349181</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.145727349720083</v>
+        <v>18.675503064925067</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.022432125657001</v>
+        <v>17.683430148592706</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.046416778118495</v>
+        <v>16.821432010013162</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3622,99 +3625,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.233410859252178</v>
+        <v>19.63612439423602</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.185336297514748</v>
+        <v>18.710484932122345</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.745640638509727</v>
+        <v>18.32215411277641</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.146055648957422</v>
+        <v>17.792612086395586</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.345917312141527</v>
+        <v>17.969126095189196</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.206921357138629</v>
+        <v>18.729548445072052</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.0112724523647</v>
+        <v>20.323116916460737</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.870677604056333</v>
+        <v>21.082127154273245</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.909958252613659</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.618052461791628</v>
+        <v>20.859013447158127</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.081623757805506</v>
+        <v>20.385249847556089</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.963090128054034</v>
+        <v>18.514201354343857</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.382691858167394</v>
+        <v>18.001604672807215</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.419942563126281</v>
+        <v>15.384961006450789</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.123455617534312</v>
+        <v>16.006290317404282</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.434224840302289</v>
+        <v>14.514393915080717</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.988933054728115</v>
+        <v>14.121120703488563</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.904191709538052</v>
+        <v>14.046278763760071</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.11364673255499</v>
+        <v>14.231265444975772</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.301732221094536</v>
+        <v>16.163740813248182</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.182246273477048</v>
+        <v>19.590936807984857</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.152666747325803</v>
+        <v>19.564812734683404</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.975881274497816</v>
+        <v>18.525498250906647</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.953389005647949</v>
+        <v>17.622452581918552</v>
       </c>
     </row>
   </sheetData>
@@ -3818,99 +3821,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.761749867913259</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.290833186570289</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.308841536047559</v>
+        <v>35.6</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.950116540450445</v>
+        <v>34.4</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.23266654925623</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.685574881121937</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.497208208584745</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.855933204181859</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3919,99 +3922,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.403164211435573</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.403164211435573</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.723662374517588</v>
+        <v>34.199999999999996</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.15392528979001</v>
+        <v>34.58</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.403164211435573</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.026291527241774</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.15392528979001</v>
+        <v>34.58</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.29339945924518</v>
+        <v>33.82</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.002610713427927</v>
+        <v>32.68</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.14208488288309</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.281559052338253</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.421033221793415</v>
+        <v>30.4</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.851296137065845</v>
+        <v>30.780000000000005</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.281559052338253</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.711821967610668</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.14208488288309</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.711821967610668</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.14208488288309</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.711821967610668</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.14208488288309</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.711821967610668</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.281559052338253</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.572347798155505</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.863136543972757</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4020,99 +4023,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.761749867913259</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.290833186570289</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.308841536047559</v>
+        <v>35.6</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.950116540450445</v>
+        <v>34.4</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.23266654925623</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.685574881121937</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.497208208584745</v>
+        <v>34</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.855933204181859</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4121,99 +4124,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.445602549481428</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.445602549481428</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.799837361308924</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.275391109767909</v>
+        <v>38.22</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.445602549481428</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.555374845898804</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.275391109767909</v>
+        <v>38.22</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.324283612849939</v>
+        <v>37.380000000000003</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.89762236747297</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.946514870554992</v>
+        <v>35.28</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.995407373637015</v>
+        <v>34.44</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.519853625178044</v>
+        <v>34.02000000000001</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.995407373637015</v>
+        <v>34.44</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.470961122096007</v>
+        <v>34.86</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.946514870554992</v>
+        <v>35.28</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.470961122096007</v>
+        <v>34.86</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.946514870554992</v>
+        <v>35.28</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.470961122096007</v>
+        <v>34.86</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.946514870554992</v>
+        <v>35.28</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.470961122096007</v>
+        <v>34.86</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.995407373637015</v>
+        <v>34.44</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.422068619013984</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.848729864390954</v>
+        <v>36.960000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4222,99 +4225,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.466821718504356</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.466821718504356</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.837924854704589</v>
+        <v>39.6</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.336124019756859</v>
+        <v>40.04</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.466821718504356</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.819916505227319</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.336124019756859</v>
+        <v>40.04</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.339725689652319</v>
+        <v>39.160000000000004</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.845128194495494</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.848729864390954</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.8523315342864</v>
+        <v>36.08</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.855933204181859</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.354132369234136</v>
+        <v>35.640000000000008</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.8523315342864</v>
+        <v>36.08</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.35053069933867</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.848729864390954</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.35053069933867</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.848729864390954</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.35053069933867</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.848729864390954</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.35053069933867</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.8523315342864</v>
+        <v>36.08</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.346929029443224</v>
+        <v>37.400000000000006</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.841526524600042</v>
+        <v>38.720000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -4418,99 +4421,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>222.33410859252177</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>216.71663679773883</v>
+        <v>191.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.11272452364699</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.70677604056331</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>244.11759087561387</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>246.60858670087524</v>
+        <v>217.8</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>239.13559922509114</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>234.15360757456841</v>
+        <v>206.8</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>229.17161592404565</v>
+        <v>202.4</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>219.20763262300022</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.53389005647949</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4519,99 +4522,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.21740316289566</v>
+        <v>186.54318174524218</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.51435892385359</v>
+        <v>179.74</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.51435892385359</v>
+        <v>179.74</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>205.88080495785186</v>
+        <v>181.82999999999998</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.51435892385359</v>
+        <v>179.74</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.51435892385359</v>
+        <v>179.74</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>218.6070882974646</v>
+        <v>193.06961070637698</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.77143723853513</v>
+        <v>200.28020796559579</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>236.64460339982978</v>
+        <v>209.00000000000003</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.91171133183317</v>
+        <v>204.82000000000002</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>234.27815736583145</v>
+        <v>206.91</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>236.64460339982978</v>
+        <v>209.00000000000003</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>227.17881926383657</v>
+        <v>200.64000000000001</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.9801430598468</v>
+        <v>188.10000000000002</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.34658909384507</v>
+        <v>190.19</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.07948116184167</v>
+        <v>194.37</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>222.44592719583997</v>
+        <v>196.46</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.07948116184167</v>
+        <v>194.37</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.34658909384507</v>
+        <v>190.19</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.34658909384507</v>
+        <v>190.19</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.71303512784337</v>
+        <v>192.28</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.07948116184167</v>
+        <v>194.37</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.24725099185019</v>
+        <v>183.92000000000002</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.5571955536555</v>
+        <v>167.41329952822622</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4620,99 +4623,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>222.33410859252177</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>216.71663679773883</v>
+        <v>191.4</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.11272452364699</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.70677604056331</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>244.11759087561387</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>246.60858670087524</v>
+        <v>217.8</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>239.13559922509114</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>234.15360757456841</v>
+        <v>206.8</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>229.17161592404565</v>
+        <v>202.4</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>219.20763262300022</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.53389005647949</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4721,99 +4724,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>233.45081402214788</v>
+        <v>206.17930613947823</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.93692302110136</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.93692302110136</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>227.55246863762579</v>
+        <v>200.97000000000003</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.93692302110136</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.93692302110136</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>241.61836074982935</v>
+        <v>213.39272762283775</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>250.6421148425915</v>
+        <v>221.36233511986907</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.55456165244345</v>
+        <v>231.00000000000003</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.3234704193946</v>
+        <v>226.38000000000002</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>258.939016035919</v>
+        <v>228.69000000000003</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.55456165244345</v>
+        <v>231.00000000000003</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>251.09237918634568</v>
+        <v>221.76000000000002</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.39910548719911</v>
+        <v>207.90000000000003</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.01465110372354</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.24574233677242</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>245.86128795329682</v>
+        <v>217.14000000000001</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.24574233677242</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.01465110372354</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.01465110372354</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>240.63019672024794</v>
+        <v>212.52</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.24574233677242</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.16801425415022</v>
+        <v>203.28000000000003</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.51058455930348</v>
+        <v>185.03575211014481</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4822,99 +4825,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>244.56751945177399</v>
+        <v>215.99736833659625</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.64820506972524</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.64820506972524</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.38830047751273</v>
+        <v>210.54000000000002</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.64820506972524</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.64820506972524</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>253.12399697601168</v>
+        <v>223.55428608106811</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.57745364461965</v>
+        <v>231.90339869700568</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.00954077875031</v>
+        <v>242.00000000000006</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>268.52934996317532</v>
+        <v>237.16000000000005</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>271.26944537096279</v>
+        <v>239.58000000000004</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.00954077875031</v>
+        <v>242.00000000000006</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>263.04915914760028</v>
+        <v>232.32000000000005</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>246.60858670087526</v>
+        <v>217.80000000000004</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.34868210866276</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>254.82887292423774</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>257.56896833202524</v>
+        <v>227.48000000000002</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>254.82887292423774</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.34868210866276</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.34868210866276</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>252.08877751645025</v>
+        <v>222.64000000000001</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>254.82887292423774</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>241.12839588530025</v>
+        <v>212.96000000000004</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>219.48727906212747</v>
+        <v>193.84697840110408</v>
       </c>
     </row>
   </sheetData>
@@ -5018,99 +5021,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.90972521206325</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>177.31361192542266</v>
+        <v>156.6</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.27404733752934</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>195.30554403318814</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.73257435277498</v>
+        <v>176.4</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>201.77066184617064</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>195.65639936598365</v>
+        <v>172.8</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>183.42787440560966</v>
+        <v>162</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.58022437919234</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>187.50404939240099</v>
+        <v>165.6</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.35169941881836</v>
+        <v>158.4</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.25500095530137</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5119,99 +5122,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.81423895146008</v>
+        <v>152.62623960974358</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.51174821042565</v>
+        <v>147.06</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.51174821042565</v>
+        <v>147.06</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>168.44793132915152</v>
+        <v>148.76999999999998</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.51174821042565</v>
+        <v>147.06</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.51174821042565</v>
+        <v>147.06</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.86034497065285</v>
+        <v>157.96604512339934</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.54026683152873</v>
+        <v>163.86562469912383</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.61831187258798</v>
+        <v>171</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.7459456351362</v>
+        <v>167.57999999999998</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.68212875386212</v>
+        <v>169.29000000000002</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.61831187258798</v>
+        <v>171</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.87357939768447</v>
+        <v>164.16</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>174.25648068532919</v>
+        <v>153.9</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.19266380405509</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.06503004150682</v>
+        <v>159.03</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>182.00121316023271</v>
+        <v>160.74</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.06503004150682</v>
+        <v>159.03</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.19266380405509</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.19266380405509</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.12884692278092</v>
+        <v>157.32</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.06503004150682</v>
+        <v>159.03</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.38411444787741</v>
+        <v>150.47999999999999</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.09225090753631</v>
+        <v>136.97451779582144</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5220,99 +5223,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.90972521206325</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>177.31361192542266</v>
+        <v>156.6</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.27404733752934</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>195.30554403318814</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.73257435277498</v>
+        <v>176.4</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>201.77066184617064</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>195.65639936598365</v>
+        <v>172.8</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>183.42787440560966</v>
+        <v>162</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.58022437919234</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>187.50404939240099</v>
+        <v>165.6</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.35169941881836</v>
+        <v>158.4</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.25500095530137</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5321,99 +5324,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.00521147266642</v>
+        <v>168.69215956866398</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.03930065362837</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.03930065362837</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>186.17929252169381</v>
+        <v>164.43</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.03930065362837</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.03930065362837</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>197.6877497044058</v>
+        <v>174.59404987323086</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>205.07082123484759</v>
+        <v>181.11463782534742</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.9991868065446</v>
+        <v>189</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.71920307041376</v>
+        <v>185.22000000000003</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.85919493847916</v>
+        <v>187.11</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.9991868065446</v>
+        <v>189</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>205.43921933428285</v>
+        <v>181.44000000000003</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.59926812589015</v>
+        <v>170.1</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.01924373008649</v>
+        <v>175.77</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>201.15923559815195</v>
+        <v>177.66000000000003</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.01924373008649</v>
+        <v>175.77</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.73925999395561</v>
+        <v>171.99</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.73925999395561</v>
+        <v>171.99</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.87925186202102</v>
+        <v>173.88</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.01924373008649</v>
+        <v>175.77</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.31928438975928</v>
+        <v>166.32000000000002</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171.41775100306646</v>
+        <v>151.39288809011845</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -5422,99 +5425,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.10069773326961</v>
+        <v>176.72511954812418</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.80307687522975</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.80307687522975</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>195.04497311796496</v>
+        <v>172.26000000000002</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.80307687522975</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.80307687522975</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>207.10145207128227</v>
+        <v>182.90805224814662</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.836098436507</v>
+        <v>189.73914438845921</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>219.70583178805248</v>
+        <v>194.04000000000002</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.94772803078774</v>
+        <v>196.02000000000004</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.22203930258206</v>
+        <v>190.08000000000004</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>201.77066184617064</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.01255808890591</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.49635057437632</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.73824681711159</v>
+        <v>186.12000000000003</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.49635057437632</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.01255808890591</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.01255808890591</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.25445433164109</v>
+        <v>182.16</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.49635057437632</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>197.28686936070019</v>
+        <v>174.24</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.58050105083154</v>
+        <v>158.60207323726695</v>
       </c>
     </row>
   </sheetData>
@@ -5618,99 +5621,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>202.1219169022925</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>192.59396634104317</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>188.59673307736111</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>183.14596044506746</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.962884655832</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>192.79019415580569</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.19338593058814</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>217.00616003687574</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>226.45416593285142</v>
+        <v>200</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>214.70956783446937</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.83294325277728</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>190.57354661867299</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.29719871061269</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>158.3631142102389</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>164.7586874321301</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>149.40204400274806</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.35393686116464</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>144.58356099580047</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.48769756868171</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.37938382813209</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.65678430433678</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.38787952114362</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>190.6898297681619</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>181.39444550589042</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5719,99 +5722,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>192.01582105717787</v>
+        <v>169.58471067749286</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>182.964268023991</v>
+        <v>161.59055168651113</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>179.16689642349306</v>
+        <v>158.2367855194326</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>173.98866242281406</v>
+        <v>153.66346801887096</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>175.71474042304041</v>
+        <v>155.18790718572484</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>183.15068444801543</v>
+        <v>161.75519111653134</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>198.73371663405874</v>
+        <v>175.51782791488816</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>206.15585203503193</v>
+        <v>182.07291633235982</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>215.13145763620886</v>
+        <v>190</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.97408944274585</v>
+        <v>180.14602522545653</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>199.34129609013843</v>
+        <v>176.05443050162074</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>181.04486928773935</v>
+        <v>159.89537533296965</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.03233877508205</v>
+        <v>155.46840399242595</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>150.44495849972694</v>
+        <v>132.87011778298407</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>156.52075306052359</v>
+        <v>138.23614365030969</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>141.93194180261065</v>
+        <v>125.35158381206071</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>138.08624001810639</v>
+        <v>121.95513334831028</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>137.35438294601045</v>
+        <v>121.30877114156424</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.16331269024764</v>
+        <v>122.9063833884271</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>158.06041463672548</v>
+        <v>139.59594338714336</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.57394508911995</v>
+        <v>169.19445425077831</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.31848554508645</v>
+        <v>168.96883725408392</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>181.15533827975381</v>
+        <v>159.99293943964827</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>172.32472323059591</v>
+        <v>152.19390866202383</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5820,99 +5823,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>202.1219169022925</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>192.59396634104317</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>188.59673307736111</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>183.14596044506746</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.962884655832</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>192.79019415580569</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.19338593058814</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>217.00616003687574</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>226.45416593285142</v>
+        <v>200</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>214.70956783446937</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.83294325277728</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>190.57354661867299</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.29719871061269</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>158.3631142102389</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>164.7586874321301</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>149.40204400274806</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.35393686116464</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>144.58356099580047</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.48769756868171</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.37938382813209</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.65678430433678</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.38787952114362</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>190.6898297681619</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>181.39444550589042</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5921,99 +5924,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>212.22801274740715</v>
+        <v>187.43573285407109</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>202.22366465809532</v>
+        <v>178.600083442986</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>198.02656973122919</v>
+        <v>174.89328925832024</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>192.30325846732083</v>
+        <v>169.83856991559423</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>194.21102888862359</v>
+        <v>171.52347636316955</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>202.42970386359599</v>
+        <v>178.78205333932411</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>219.65305522711753</v>
+        <v>193.99338874803428</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>227.85646803871953</v>
+        <v>201.23848647260823</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.77687422949401</v>
+        <v>210</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>225.44504622619286</v>
+        <v>199.10876472287305</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>220.32459041541617</v>
+        <v>194.58647581758083</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200.10222394960664</v>
+        <v>176.72646747328224</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>194.5620586461433</v>
+        <v>171.83349914952342</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.28126992075084</v>
+        <v>146.85644597066661</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>172.99662180373662</v>
+        <v>152.78731666613177</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>156.87214620288546</v>
+        <v>138.546487371225</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>152.62163370422289</v>
+        <v>134.79251580602718</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>151.81273904559049</v>
+        <v>134.07811547225521</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>153.81208244711581</v>
+        <v>135.84389742931418</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>174.6983530195387</v>
+        <v>154.29025321736898</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>211.73962351955362</v>
+        <v>187.0043968034918</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>211.45727349720082</v>
+        <v>186.75503064925064</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200.22432125657002</v>
+        <v>176.83430148592706</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>190.46416778118495</v>
+        <v>168.2143201001316</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6022,99 +6025,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>222.33410859252177</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>211.85336297514749</v>
+        <v>187.10484932122344</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>207.45640638509727</v>
+        <v>183.22154112776408</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.46055648957423</v>
+        <v>177.92612086395587</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.45917312141523</v>
+        <v>179.69126095189193</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>212.06921357138631</v>
+        <v>187.29548445072052</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>230.11272452364699</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>238.70677604056331</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>236.18052461791632</v>
+        <v>208.59013447158128</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>230.81623757805505</v>
+        <v>203.85249847556088</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.63090128054031</v>
+        <v>185.14201354343857</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.82691858167394</v>
+        <v>180.01604672807215</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>174.19942563126278</v>
+        <v>153.84961006450789</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>181.23455617534313</v>
+        <v>160.06290317404282</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>164.34224840302286</v>
+        <v>145.14393915080714</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>159.88933054728113</v>
+        <v>141.21120703488563</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>159.04191709538051</v>
+        <v>140.46278763760071</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.13646732554989</v>
+        <v>142.3126544497577</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>183.01732221094531</v>
+        <v>161.6374081324818</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>221.82246273477048</v>
+        <v>195.90936807984858</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>221.52666747325802</v>
+        <v>195.64812734683403</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.75881274497812</v>
+        <v>185.25498250906645</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>199.53389005647949</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
   </sheetData>
@@ -6218,99 +6221,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.21219169022925</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.259396634104316</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.859673307736113</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.314596044506743</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.496288465583202</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.279019415580571</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.919338593058814</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.700616003687571</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.645416593285145</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.470956783446937</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.983294325277729</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.057354661867301</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.529719871061268</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.83631142102389</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.47586874321301</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.940204400274807</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.535393686116466</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.458356099580048</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.648769756868173</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.637938382813211</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.16567843043368</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.138787952114367</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.068982976816191</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.139444550589044</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6319,99 +6322,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.201582105717787</v>
+        <v>16.958471067749286</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.2964268023991</v>
+        <v>16.159055168651115</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.916689642349308</v>
+        <v>15.82367855194326</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.398866242281407</v>
+        <v>15.366346801887095</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.57147404230404</v>
+        <v>15.518790718572484</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.315068444801543</v>
+        <v>16.175519111653134</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.873371663405873</v>
+        <v>17.551782791488815</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.615585203503194</v>
+        <v>18.207291633235982</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.513145763620887</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.397408944274588</v>
+        <v>18.014602522545655</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.934129609013844</v>
+        <v>17.605443050162076</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.104486928773934</v>
+        <v>15.989537533296964</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.603233877508202</v>
+        <v>15.546840399242594</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.044495849972694</v>
+        <v>13.287011778298407</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.652075306052359</v>
+        <v>13.823614365030968</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.193194180261067</v>
+        <v>12.535158381206072</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.808624001810642</v>
+        <v>12.195513334831031</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.735438294601044</v>
+        <v>12.130877114156425</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.916331269024765</v>
+        <v>12.290638338842712</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.80604146367255</v>
+        <v>13.959594338714338</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.157394508911995</v>
+        <v>16.919445425077829</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.131848554508647</v>
+        <v>16.896883725408394</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.11553382797538</v>
+        <v>15.999293943964828</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.232472323059589</v>
+        <v>15.219390866202382</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6420,99 +6423,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.21219169022925</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.259396634104316</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.859673307736113</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.314596044506743</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.496288465583202</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.279019415580571</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.919338593058814</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.700616003687571</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.645416593285145</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.470956783446937</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.983294325277729</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.057354661867301</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.529719871061268</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.83631142102389</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.47586874321301</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.940204400274807</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.535393686116466</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.458356099580048</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.648769756868173</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.637938382813211</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.16567843043368</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.138787952114367</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.068982976816191</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.139444550589044</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6521,99 +6524,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.222801274740714</v>
+        <v>18.743573285407109</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.222366465809532</v>
+        <v>17.860008344298599</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.802656973122922</v>
+        <v>17.489328925832027</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.230325846732086</v>
+        <v>16.983856991559424</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.421102888862361</v>
+        <v>17.152347636316957</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.242970386359598</v>
+        <v>17.87820533393241</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.965305522711756</v>
+        <v>19.39933887480343</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.785646803871948</v>
+        <v>20.123848647260822</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.777687422949402</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.544504622619282</v>
+        <v>19.910876472287303</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.032459041541617</v>
+        <v>19.458647581758083</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.010222394960667</v>
+        <v>17.672646747328226</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.456205864614329</v>
+        <v>17.183349914952341</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.628126992075085</v>
+        <v>14.685644597066663</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.299662180373662</v>
+        <v>15.278731666613178</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.687214620288547</v>
+        <v>13.854648737122501</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.262163370422289</v>
+        <v>13.479251580602718</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.181273904559051</v>
+        <v>13.407811547225522</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.381208244711582</v>
+        <v>13.584389742931418</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.469835301953871</v>
+        <v>15.4290253217369</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.173962351955364</v>
+        <v>18.700439680349181</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.145727349720083</v>
+        <v>18.675503064925067</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.022432125657001</v>
+        <v>17.683430148592706</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.046416778118495</v>
+        <v>16.821432010013162</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6622,99 +6625,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.233410859252178</v>
+        <v>19.63612439423602</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.185336297514748</v>
+        <v>18.710484932122345</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.745640638509727</v>
+        <v>18.32215411277641</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.146055648957422</v>
+        <v>17.792612086395586</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.345917312141527</v>
+        <v>17.969126095189196</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.206921357138629</v>
+        <v>18.729548445072052</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.0112724523647</v>
+        <v>20.323116916460737</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.870677604056333</v>
+        <v>21.082127154273245</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.909958252613659</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.618052461791628</v>
+        <v>20.859013447158127</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.081623757805506</v>
+        <v>20.385249847556089</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.963090128054034</v>
+        <v>18.514201354343857</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.382691858167394</v>
+        <v>18.001604672807215</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.419942563126281</v>
+        <v>15.384961006450789</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.123455617534312</v>
+        <v>16.006290317404282</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.434224840302289</v>
+        <v>14.514393915080717</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.988933054728115</v>
+        <v>14.121120703488563</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.904191709538052</v>
+        <v>14.046278763760071</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.11364673255499</v>
+        <v>14.231265444975772</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.301732221094536</v>
+        <v>16.163740813248182</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.182246273477048</v>
+        <v>19.590936807984857</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.152666747325803</v>
+        <v>19.564812734683404</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.975881274497816</v>
+        <v>18.525498250906647</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.953389005647949</v>
+        <v>17.622452581918552</v>
       </c>
     </row>
   </sheetData>
@@ -6818,99 +6821,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.761749867913259</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.290833186570289</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.308841536047559</v>
+        <v>35.6</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.950116540450445</v>
+        <v>34.4</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.23266654925623</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.685574881121937</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.497208208584745</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.855933204181859</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6919,99 +6922,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.403164211435573</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.403164211435573</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.723662374517588</v>
+        <v>34.199999999999996</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.15392528979001</v>
+        <v>34.58</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.403164211435573</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.026291527241774</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.15392528979001</v>
+        <v>34.58</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.29339945924518</v>
+        <v>33.82</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.002610713427927</v>
+        <v>32.68</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.14208488288309</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.281559052338253</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.421033221793415</v>
+        <v>30.4</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.851296137065845</v>
+        <v>30.780000000000005</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.281559052338253</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.711821967610668</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.14208488288309</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.711821967610668</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.14208488288309</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.711821967610668</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.14208488288309</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.711821967610668</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.281559052338253</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.572347798155505</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.863136543972757</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7020,99 +7023,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.761749867913259</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.290833186570289</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.308841536047559</v>
+        <v>35.6</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.950116540450445</v>
+        <v>34.4</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.23266654925623</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.685574881121937</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.497208208584745</v>
+        <v>34</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.855933204181859</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -7121,99 +7124,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.445602549481428</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.445602549481428</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.799837361308924</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.275391109767909</v>
+        <v>38.22</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.445602549481428</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.555374845898804</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.275391109767909</v>
+        <v>38.22</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.324283612849939</v>
+        <v>37.380000000000003</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.89762236747297</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.946514870554992</v>
+        <v>35.28</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.995407373637015</v>
+        <v>34.44</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.519853625178044</v>
+        <v>34.02000000000001</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.995407373637015</v>
+        <v>34.44</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.470961122096007</v>
+        <v>34.86</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.946514870554992</v>
+        <v>35.28</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.470961122096007</v>
+        <v>34.86</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.946514870554992</v>
+        <v>35.28</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.470961122096007</v>
+        <v>34.86</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.946514870554992</v>
+        <v>35.28</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.470961122096007</v>
+        <v>34.86</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.995407373637015</v>
+        <v>34.44</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.422068619013984</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.848729864390954</v>
+        <v>36.960000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -7222,99 +7225,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.466821718504356</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.466821718504356</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.837924854704589</v>
+        <v>39.6</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.336124019756859</v>
+        <v>40.04</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.466821718504356</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.819916505227319</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.336124019756859</v>
+        <v>40.04</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.339725689652319</v>
+        <v>39.160000000000004</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.845128194495494</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.848729864390954</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.8523315342864</v>
+        <v>36.08</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.855933204181859</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.354132369234136</v>
+        <v>35.640000000000008</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.8523315342864</v>
+        <v>36.08</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.35053069933867</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.848729864390954</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.35053069933867</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.848729864390954</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.35053069933867</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.848729864390954</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.35053069933867</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.8523315342864</v>
+        <v>36.08</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.346929029443224</v>
+        <v>37.400000000000006</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.841526524600042</v>
+        <v>38.720000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/data/HR1/Market Data/cs1_market_data_2030.xlsx
+++ b/data/HR1/Market Data/cs1_market_data_2030.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB26669-F01C-4B1A-99D9-AE747FCB09B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1B4413-7677-4165-A1F4-7D6CF84E2767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
@@ -158,12 +158,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0</v>
+            <v>2.5000000000000001E-3</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0</v>
+            <v>2.5000000000000001E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -1205,7 +1205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="4">
         <v>0.2</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="4">
         <v>0.95</v>
@@ -1421,99 +1421,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>181.19328429035568</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>174.58521192602728</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>174.58521192602728</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.4</v>
+        <v>176.6152725298183</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>174.58521192602728</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>174.58521192602728</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>187.53254090157122</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>194.53634445455856</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>203.00606037910148</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.60000000000002</v>
+        <v>198.94593917151946</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.8</v>
+        <v>200.97599977531047</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>203.00606037910148</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.20000000000002</v>
+        <v>194.88581796393743</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>182.70545434119134</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>184.73551494498236</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>188.79563615256438</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.8</v>
+        <v>190.8256967563554</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>188.79563615256438</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>184.73551494498236</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>184.73551494498236</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>202.4</v>
+        <v>186.76557554877334</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>188.79563615256438</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.60000000000002</v>
+        <v>178.64533313360934</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>162.61203058512774</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1522,99 +1522,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>186.54318174524218</v>
+        <v>191.25957786204208</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>184.28439036636212</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>184.28439036636212</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.82999999999998</v>
+        <v>186.42723211480816</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>184.28439036636212</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>184.28439036636212</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.06961070637698</v>
+        <v>197.95101539610292</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.28020796559579</v>
+        <v>205.34391914647847</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.00000000000003</v>
+        <v>214.28417484460712</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.82000000000002</v>
+        <v>209.99849134771497</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.91</v>
+        <v>212.14133309616102</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.00000000000003</v>
+        <v>214.28417484460712</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.64000000000001</v>
+        <v>205.71280785082283</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.10000000000002</v>
+        <v>192.85575736014641</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>194.99859910859246</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>199.28428260548461</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.46</v>
+        <v>201.42712435393068</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>199.28428260548461</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>194.99859910859246</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>194.99859910859246</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.28</v>
+        <v>197.14144085703853</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>199.28428260548461</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>183.92000000000002</v>
+        <v>188.57007386325427</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.41329952822622</v>
+        <v>171.64603228430147</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1623,99 +1623,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>201.32587143372854</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>193.98356880669698</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>193.98356880669698</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.4</v>
+        <v>196.23919169979808</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>193.98356880669698</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>193.98356880669698</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>208.3694898906347</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>216.15149383839841</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>225.56228931011276</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.60000000000002</v>
+        <v>221.05104352391052</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.8</v>
+        <v>223.30666641701163</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>225.56228931011276</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.20000000000002</v>
+        <v>216.53979773770826</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>203.00606037910148</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>205.26168327220262</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>209.77292905840488</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.8</v>
+        <v>212.02855195150599</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>209.77292905840488</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>205.26168327220262</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>205.26168327220262</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>202.4</v>
+        <v>207.51730616530372</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>209.77292905840488</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.60000000000002</v>
+        <v>198.49481459289925</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>180.68003398347525</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1724,99 +1724,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.17930613947823</v>
+        <v>211.39216500541497</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>203.68274724703184</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>203.68274724703184</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.97000000000003</v>
+        <v>206.05115128478801</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>203.68274724703184</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>203.68274724703184</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.39272762283775</v>
+        <v>218.78796438516645</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.36233511986907</v>
+        <v>226.95906853031835</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.00000000000003</v>
+        <v>236.8404037756184</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.38000000000002</v>
+        <v>232.10359570010604</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>228.69000000000003</v>
+        <v>234.47199973786223</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.00000000000003</v>
+        <v>236.8404037756184</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.76000000000002</v>
+        <v>227.36678762459366</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>207.90000000000003</v>
+        <v>213.15636339805658</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>215.52476743581278</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>220.26157551132513</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.14000000000001</v>
+        <v>222.6299795490813</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>220.26157551132513</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>215.52476743581278</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>215.52476743581278</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.52</v>
+        <v>217.89317147356891</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>220.26157551132513</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.28000000000003</v>
+        <v>208.4195553225442</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.03575211014481</v>
+        <v>189.71403568264904</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1825,99 +1825,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.99736833659625</v>
+        <v>221.4584585771014</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>213.38192568736667</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>213.38192568736667</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.54000000000002</v>
+        <v>215.86311086977793</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>213.38192568736667</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>213.38192568736667</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>223.55428608106811</v>
+        <v>229.20643887969817</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.90339869700568</v>
+        <v>237.76664322223826</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.00000000000006</v>
+        <v>248.11851824112406</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.16000000000005</v>
+        <v>243.15614787630159</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>239.58000000000004</v>
+        <v>245.63733305871281</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.00000000000006</v>
+        <v>248.11851824112406</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>232.32000000000005</v>
+        <v>238.19377751147911</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.80000000000004</v>
+        <v>223.30666641701166</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>225.78785159942288</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>230.75022196424536</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>227.48000000000002</v>
+        <v>233.23140714665661</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>230.75022196424536</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>225.78785159942288</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>225.78785159942288</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>222.64000000000001</v>
+        <v>228.2690367818341</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>230.75022196424536</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.96000000000004</v>
+        <v>218.34429605218918</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.84697840110408</v>
+        <v>198.7480373818228</v>
       </c>
     </row>
   </sheetData>
@@ -2021,99 +2021,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.65919958920378</v>
+        <v>148.24905078301825</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>142.84244612129507</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>142.84244612129507</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>156.6</v>
+        <v>144.50340479712403</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>142.84244612129507</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>142.84244612129507</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.2800474983151</v>
+        <v>153.43571528310369</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.49013126223562</v>
+        <v>159.16610000827521</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>166.09586758290121</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.4</v>
+        <v>162.77395023124319</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>164.43490890707221</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>166.09586758290121</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.8</v>
+        <v>159.45203287958518</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162</v>
+        <v>149.4862808246111</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>151.14723950044012</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>154.46915685209811</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.20000000000002</v>
+        <v>156.13011552792716</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>154.46915685209811</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>151.14723950044012</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>151.14723950044012</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>165.6</v>
+        <v>152.80819817626909</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>154.46915685209811</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.4</v>
+        <v>146.16436347295306</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>144.18370294296994</v>
+        <v>133.04620684237722</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2122,99 +2122,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>152.62623960974358</v>
+        <v>156.48510915985258</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>150.7781375724781</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>150.7781375724781</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>148.76999999999998</v>
+        <v>152.53137173029759</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>150.7781375724781</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>150.7781375724781</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>157.96604512339934</v>
+        <v>161.95992168772057</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.86562469912383</v>
+        <v>168.00866111984601</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171</v>
+        <v>175.32341578195127</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.57999999999998</v>
+        <v>171.81694746631223</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.29000000000002</v>
+        <v>173.57018162413178</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171</v>
+        <v>175.32341578195127</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>164.16</v>
+        <v>168.31047915067322</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>153.9</v>
+        <v>157.79107420375615</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>159.54430836157567</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>163.05077667721469</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.74</v>
+        <v>164.80401083503421</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>163.05077667721469</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>159.54430836157567</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>159.54430836157567</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>157.32</v>
+        <v>161.29754251939517</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>163.05077667721469</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>150.47999999999999</v>
+        <v>154.28460588811711</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>136.97451779582144</v>
+        <v>140.43766277806483</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2223,99 +2223,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.65919958920378</v>
+        <v>164.72116753668695</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>158.71382902366116</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>158.71382902366116</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>156.6</v>
+        <v>160.55933866347115</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>158.71382902366116</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>158.71382902366116</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.2800474983151</v>
+        <v>170.48412809233744</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.49013126223562</v>
+        <v>176.85122223141687</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>184.55096398100133</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.4</v>
+        <v>180.85994470138132</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>182.70545434119134</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>184.55096398100133</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.8</v>
+        <v>177.16892542176129</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162</v>
+        <v>166.09586758290121</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>167.94137722271122</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>171.63239650233126</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.20000000000002</v>
+        <v>173.47790614214128</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>171.63239650233126</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>167.94137722271122</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>167.94137722271122</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>165.6</v>
+        <v>169.78688686252121</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>171.63239650233126</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.4</v>
+        <v>162.40484830328117</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>144.18370294296994</v>
+        <v>147.82911871375245</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2324,99 +2324,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>168.69215956866398</v>
+        <v>172.95722591352131</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>166.64952047484422</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>166.64952047484422</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>164.43</v>
+        <v>168.58730559664474</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>166.64952047484422</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>166.64952047484422</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>174.59404987323086</v>
+        <v>179.00833449695432</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.11463782534742</v>
+        <v>185.69378334298773</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189</v>
+        <v>193.77851218005139</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.22000000000003</v>
+        <v>189.90294193645039</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>187.11</v>
+        <v>191.84072705825091</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189</v>
+        <v>193.77851218005139</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.44000000000003</v>
+        <v>186.02737169284939</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.1</v>
+        <v>174.40066096204626</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>167.94137722271122</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>180.21401632744781</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>177.66000000000003</v>
+        <v>182.15180144924835</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>180.21401632744781</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171.99</v>
+        <v>176.33844608384678</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171.99</v>
+        <v>176.33844608384678</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>173.88</v>
+        <v>178.27623120564729</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>180.21401632744781</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.32000000000002</v>
+        <v>170.52509071844526</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>151.39288809011845</v>
+        <v>155.2205746494401</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -2425,99 +2425,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.72511954812418</v>
+        <v>181.19328429035568</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>174.58521192602728</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>174.58521192602728</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.26000000000002</v>
+        <v>176.6152725298183</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>174.58521192602728</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>174.58521192602728</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>182.90805224814662</v>
+        <v>187.5325409015712</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.73914438845921</v>
+        <v>194.53634445455859</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>203.00606037910148</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.04000000000002</v>
+        <v>198.94593917151946</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.02000000000004</v>
+        <v>200.9759997753105</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>203.00606037910148</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.08000000000004</v>
+        <v>194.88581796393746</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>182.70545434119134</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>184.73551494498238</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>188.79563615256438</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>186.12000000000003</v>
+        <v>190.82569675635543</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>188.79563615256438</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>184.73551494498238</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>184.73551494498238</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>182.16</v>
+        <v>186.76557554877334</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>188.79563615256438</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>174.24</v>
+        <v>178.64533313360931</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.60207323726695</v>
+        <v>162.61203058512771</v>
       </c>
     </row>
   </sheetData>
@@ -2621,99 +2621,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.51022176578198</v>
+        <v>164.72116753668695</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.09531756474857</v>
+        <v>156.95627412614451</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.56503738887642</v>
+        <v>153.69869107824337</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.7510189672326</v>
+        <v>149.25653237656005</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.35569177444719</v>
+        <v>150.73725194378781</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.26862222792772</v>
+        <v>157.11619183940505</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.75560833146122</v>
+        <v>170.48412809233744</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.65570140248403</v>
+        <v>176.85122223141687</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200</v>
+        <v>184.55096398100133</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>189.62739497416479</v>
+        <v>174.979592698441</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.32045315960079</v>
+        <v>171.00534138000168</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.31092140312595</v>
+        <v>155.30971396738721</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.65095157097468</v>
+        <v>151.00970434415771</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.86328187682534</v>
+        <v>129.05951747957315</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.51173015822073</v>
+        <v>134.27165035621491</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>131.94903559164285</v>
+        <v>121.75660857400571</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>128.37382457716873</v>
+        <v>118.45756537822226</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>127.69344330690973</v>
+        <v>117.82974028171766</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>129.37514040887064</v>
+        <v>119.38153438817237</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.94309830225617</v>
+        <v>135.59245221018207</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.09942552713505</v>
+        <v>164.34210332747668</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.86193395166728</v>
+        <v>164.12295683152695</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.41362046278766</v>
+        <v>155.40448001968977</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.20411438107772</v>
+        <v>147.82911871375245</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2722,99 +2722,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.58471067749286</v>
+        <v>173.87234351094733</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.59055168651113</v>
+        <v>165.67606713315251</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>158.2367855194326</v>
+        <v>162.23750724925688</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>153.66346801887096</v>
+        <v>157.54856195303557</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>155.18790718572484</v>
+        <v>159.11154371844268</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.75519111653134</v>
+        <v>165.84486916381644</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>175.51782791488816</v>
+        <v>179.95546854191176</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>182.07291633235982</v>
+        <v>186.67629013316227</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>190</v>
+        <v>194.80379531327918</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>180.14602522545653</v>
+        <v>184.70068118168768</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.05443050162074</v>
+        <v>180.50563812333507</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>159.89537533296965</v>
+        <v>163.93803141001985</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>155.46840399242595</v>
+        <v>159.39913236327757</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>132.87011778298407</v>
+        <v>136.22949067288278</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>138.23614365030969</v>
+        <v>141.73118648711571</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>125.35158381206071</v>
+        <v>128.52086460589493</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>121.95513334831028</v>
+        <v>125.03854123256792</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>121.30877114156424</v>
+        <v>124.37583696403532</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>122.9063833884271</v>
+        <v>126.01384185418195</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.59594338714336</v>
+        <v>143.12536622185888</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.19445425077831</v>
+        <v>173.47222017900313</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.96883725408392</v>
+        <v>173.24089887772288</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>159.99293943964827</v>
+        <v>164.03806224300587</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>152.19390866202383</v>
+        <v>156.04184753118315</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2823,99 +2823,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.51022176578198</v>
+        <v>183.02351948520771</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.09531756474857</v>
+        <v>174.39586014016055</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.56503738887642</v>
+        <v>170.77632342027042</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.7510189672326</v>
+        <v>165.84059152951116</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.35569177444719</v>
+        <v>167.48583549309757</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.26862222792772</v>
+        <v>174.57354648822783</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.75560833146122</v>
+        <v>189.42680899148604</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.65570140248403</v>
+        <v>196.50135803490764</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200</v>
+        <v>205.05662664555703</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>189.62739497416479</v>
+        <v>194.42176966493443</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.32045315960079</v>
+        <v>190.0059348666685</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.31092140312595</v>
+        <v>172.56634885265245</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.65095157097468</v>
+        <v>167.78856038239746</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.86328187682534</v>
+        <v>143.39946386619238</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.51173015822073</v>
+        <v>149.19072261801657</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>131.94903559164285</v>
+        <v>135.28512063778413</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>128.37382457716873</v>
+        <v>131.61951708691362</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>127.69344330690973</v>
+        <v>130.92193364635295</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>129.37514040887064</v>
+        <v>132.64614932019154</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.94309830225617</v>
+        <v>150.65828023353566</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.09942552713505</v>
+        <v>182.60233703052961</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.86193395166728</v>
+        <v>182.35884092391882</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.41362046278766</v>
+        <v>172.67164446632196</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.20411438107772</v>
+        <v>164.25457634861385</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2924,99 +2924,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.43573285407109</v>
+        <v>192.17469545946813</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.600083442986</v>
+        <v>183.11565314716856</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>174.89328925832024</v>
+        <v>179.31513959128392</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.83856991559423</v>
+        <v>174.13262110598671</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>171.52347636316955</v>
+        <v>175.86012726775243</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.78205333932411</v>
+        <v>183.30222381263923</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>193.99338874803428</v>
+        <v>198.89814944106035</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.23848647260823</v>
+        <v>206.32642593665304</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>210</v>
+        <v>215.30945797783488</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>199.10876472287305</v>
+        <v>204.14285814818118</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>194.58647581758083</v>
+        <v>199.50623161000192</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.72646747328224</v>
+        <v>181.19466629528509</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>171.83349914952342</v>
+        <v>176.17798840151733</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.85644597066661</v>
+        <v>150.56943705950201</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>152.78731666613177</v>
+        <v>156.65025874891739</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>138.546487371225</v>
+        <v>142.04937666967334</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>134.79251580602718</v>
+        <v>138.20049294125931</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>134.07811547225521</v>
+        <v>137.46803032867061</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>135.84389742931418</v>
+        <v>139.27845678620113</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>154.29025321736898</v>
+        <v>158.19119424521244</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.0043968034918</v>
+        <v>191.73245388205609</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>186.75503064925064</v>
+        <v>191.47678297011475</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.83430148592706</v>
+        <v>181.30522668963809</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.2143201001316</v>
+        <v>172.46730516604453</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3025,99 +3025,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>201.32587143372854</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.10484932122344</v>
+        <v>191.83544615417659</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>183.22154112776408</v>
+        <v>187.85395576229746</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.92612086395587</v>
+        <v>182.42465068246227</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>179.69126095189193</v>
+        <v>184.23441904240732</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.29548445072052</v>
+        <v>192.03090113705065</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>208.3694898906347</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>216.15149383839841</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>225.56228931011276</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>208.59013447158128</v>
+        <v>213.86394663142789</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.85249847556088</v>
+        <v>209.00652835333537</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.14201354343857</v>
+        <v>189.82298373791772</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>180.01604672807215</v>
+        <v>184.56741642063722</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>153.84961006450789</v>
+        <v>157.73941025281164</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.06290317404282</v>
+        <v>164.10979487981822</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.14393915080714</v>
+        <v>148.81363270156254</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>141.21120703488563</v>
+        <v>144.78146879560501</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>140.46278763760071</v>
+        <v>144.01412701098826</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>142.3126544497577</v>
+        <v>145.91076425221067</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.6374081324818</v>
+        <v>165.72410825688922</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.90936807984858</v>
+        <v>200.8625707335826</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.64812734683403</v>
+        <v>200.59472501631072</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.25498250906645</v>
+        <v>189.93880891295419</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>180.68003398347525</v>
       </c>
     </row>
   </sheetData>
@@ -3221,99 +3221,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.851022176578198</v>
+        <v>16.472116753668697</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.009531756474857</v>
+        <v>15.695627412614447</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.656503738887643</v>
+        <v>15.369869107824337</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175101896723259</v>
+        <v>14.925653237656004</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.335569177444722</v>
+        <v>15.073725194378783</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.026862222792772</v>
+        <v>15.711619183940506</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.475560833146123</v>
+        <v>17.048412809233746</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.165570140248402</v>
+        <v>17.68512222314169</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20</v>
+        <v>18.455096398100132</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.962739497416479</v>
+        <v>17.497959269844099</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.53204531596008</v>
+        <v>17.100534138000167</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.831092140312595</v>
+        <v>15.530971396738723</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.365095157097468</v>
+        <v>15.100970434415771</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.986328187682535</v>
+        <v>12.905951747957317</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.551173015822073</v>
+        <v>13.42716503562149</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.194903559164286</v>
+        <v>12.175660857400572</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.837382457716874</v>
+        <v>11.845756537822226</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.769344330690974</v>
+        <v>11.782974028171767</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.937514040887065</v>
+        <v>11.938153438817238</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.694309830225619</v>
+        <v>13.559245221018209</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.809942552713505</v>
+        <v>16.434210332747668</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.78619339516673</v>
+        <v>16.412295683152696</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.841362046278768</v>
+        <v>15.540448001968979</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.020411438107772</v>
+        <v>14.782911871375246</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3322,99 +3322,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.958471067749286</v>
+        <v>17.387234351094733</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.159055168651115</v>
+        <v>16.567606713315254</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.82367855194326</v>
+        <v>16.22375072492569</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.366346801887095</v>
+        <v>15.754856195303558</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.518790718572484</v>
+        <v>15.911154371844269</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175519111653134</v>
+        <v>16.584486916381646</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.551782791488815</v>
+        <v>17.995546854191176</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.207291633235982</v>
+        <v>18.667629013316226</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19</v>
+        <v>19.48037953132792</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.014602522545655</v>
+        <v>18.470068118168772</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.605443050162076</v>
+        <v>18.050563812333507</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.989537533296964</v>
+        <v>16.393803141001982</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.546840399242594</v>
+        <v>15.939913236327758</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.287011778298407</v>
+        <v>13.622949067288276</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.823614365030968</v>
+        <v>14.173118648711572</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.535158381206072</v>
+        <v>12.852086460589494</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.195513334831031</v>
+        <v>12.503854123256794</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.130877114156425</v>
+        <v>12.437583696403532</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.290638338842712</v>
+        <v>12.601384185418196</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.959594338714338</v>
+        <v>14.312536622185888</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.919445425077829</v>
+        <v>17.347222017900311</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.896883725408394</v>
+        <v>17.324089887772288</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.999293943964828</v>
+        <v>16.403806224300588</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.219390866202382</v>
+        <v>15.604184753118313</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3423,99 +3423,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.851022176578198</v>
+        <v>18.302351948520773</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.009531756474857</v>
+        <v>17.439586014016054</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.656503738887643</v>
+        <v>17.077632342027041</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175101896723259</v>
+        <v>16.584059152951113</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.335569177444722</v>
+        <v>16.748583549309757</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.026862222792772</v>
+        <v>17.457354648822786</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.475560833146123</v>
+        <v>18.942680899148606</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.165570140248402</v>
+        <v>19.650135803490762</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20</v>
+        <v>20.505662664555704</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.962739497416479</v>
+        <v>19.442176966493445</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.53204531596008</v>
+        <v>19.000593486666851</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.831092140312595</v>
+        <v>17.256634885265246</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.365095157097468</v>
+        <v>16.778856038239745</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.986328187682535</v>
+        <v>14.339946386619239</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.551173015822073</v>
+        <v>14.919072261801656</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.194903559164286</v>
+        <v>13.528512063778415</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.837382457716874</v>
+        <v>13.161951708691362</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.769344330690974</v>
+        <v>13.092193364635296</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.937514040887065</v>
+        <v>13.264614932019153</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.694309830225619</v>
+        <v>15.065828023353566</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.809942552713505</v>
+        <v>18.260233703052961</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.78619339516673</v>
+        <v>18.235884092391885</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.841362046278768</v>
+        <v>17.267164446632197</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.020411438107772</v>
+        <v>16.425457634861385</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3524,99 +3524,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.743573285407109</v>
+        <v>19.217469545946813</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.860008344298599</v>
+        <v>18.311565314716855</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.489328925832027</v>
+        <v>17.931513959128395</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.983856991559424</v>
+        <v>17.413262110598673</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.152347636316957</v>
+        <v>17.586012726775245</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.87820533393241</v>
+        <v>18.330222381263923</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.39933887480343</v>
+        <v>19.889814944106039</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.123848647260822</v>
+        <v>20.632642593665302</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21</v>
+        <v>21.530945797783488</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.910876472287303</v>
+        <v>20.414285814818115</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.458647581758083</v>
+        <v>19.950623161000191</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.672646747328226</v>
+        <v>18.11946662952851</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.183349914952341</v>
+        <v>17.617798840151732</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.685644597066663</v>
+        <v>15.056943705950204</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.278731666613178</v>
+        <v>15.665025874891739</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.854648737122501</v>
+        <v>14.204937666967336</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.479251580602718</v>
+        <v>13.82004929412593</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.407811547225522</v>
+        <v>13.746803032867062</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.584389742931418</v>
+        <v>13.927845678620111</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.4290253217369</v>
+        <v>15.819119424521245</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.700439680349181</v>
+        <v>19.173245388205611</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.675503064925067</v>
+        <v>19.147678297011478</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.683430148592706</v>
+        <v>18.13052266896381</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.821432010013162</v>
+        <v>17.246730516604455</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3625,99 +3625,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.63612439423602</v>
+        <v>20.132587143372852</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.710484932122345</v>
+        <v>19.183544615417663</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.32215411277641</v>
+        <v>18.78539557622975</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.792612086395586</v>
+        <v>18.242465068246226</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.969126095189196</v>
+        <v>18.423441904240736</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.729548445072052</v>
+        <v>19.203090113705066</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.323116916460737</v>
+        <v>20.836948989063469</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.082127154273245</v>
+        <v>21.615149383839842</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22</v>
+        <v>22.556228931011276</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.859013447158127</v>
+        <v>21.386394663142788</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.385249847556089</v>
+        <v>20.900652835333538</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.514201354343857</v>
+        <v>18.982298373791775</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.001604672807215</v>
+        <v>18.456741642063719</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.384961006450789</v>
+        <v>15.773941025281164</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.006290317404282</v>
+        <v>16.410979487981823</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.514393915080717</v>
+        <v>14.881363270156257</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.121120703488563</v>
+        <v>14.4781468795605</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.046278763760071</v>
+        <v>14.401412701098828</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.231265444975772</v>
+        <v>14.59107642522107</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.163740813248182</v>
+        <v>16.572410825688927</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.590936807984857</v>
+        <v>20.086257073358258</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.564812734683404</v>
+        <v>20.059472501631074</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.525498250906647</v>
+        <v>18.993880891295422</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.622452581918552</v>
+        <v>18.068003398347525</v>
       </c>
     </row>
   </sheetData>
@@ -3821,99 +3821,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>32.944233507337394</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>32.944233507337394</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36</v>
+        <v>33.219173516580241</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>33.588275444542241</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>32.944233507337394</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40</v>
+        <v>36.910192796200263</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>33.588275444542241</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.6</v>
+        <v>32.850071588618235</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.4</v>
+        <v>31.74276580473223</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>31.004561948808227</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>30.266358092884218</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32</v>
+        <v>29.528154236960216</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.400000000000006</v>
+        <v>29.897256164922222</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>30.266358092884218</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>30.635460020846217</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>31.004561948808227</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>30.635460020846217</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>31.004561948808227</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>30.635460020846217</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>31.004561948808227</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>30.635460020846217</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>30.266358092884218</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34</v>
+        <v>31.373663876770227</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>32.480969660656235</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3922,99 +3922,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>34.774468702189466</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>34.774468702189466</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.199999999999996</v>
+        <v>35.064683156390252</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.58</v>
+        <v>35.454290747016813</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>34.774468702189466</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38</v>
+        <v>38.960759062655839</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.58</v>
+        <v>35.454290747016813</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.82</v>
+        <v>34.675075565763699</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.68</v>
+        <v>33.506252793884023</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>32.727037612630902</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>31.947822431377784</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.4</v>
+        <v>31.168607250124669</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.780000000000005</v>
+        <v>31.558214840751234</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>31.947822431377784</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>32.337430022004341</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>32.727037612630902</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>32.337430022004341</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>32.727037612630902</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>32.337430022004341</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>32.727037612630902</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>32.337430022004341</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>31.947822431377784</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.299999999999997</v>
+        <v>33.116645203257455</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.44</v>
+        <v>34.285467975137138</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4023,99 +4023,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>36.604703897041546</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>36.604703897041546</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36</v>
+        <v>36.910192796200263</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>37.320306049491379</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>36.604703897041546</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40</v>
+        <v>41.011325329111408</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>37.320306049491379</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.6</v>
+        <v>36.500079542909155</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.4</v>
+        <v>35.26973978303581</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>34.449513276453587</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>33.629286769871349</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32</v>
+        <v>32.809060263289126</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.400000000000006</v>
+        <v>33.219173516580248</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>33.629286769871349</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>34.039400023162464</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>34.449513276453587</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>34.039400023162464</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>34.449513276453587</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>34.039400023162464</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>34.449513276453587</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>34.039400023162464</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>33.629286769871349</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34</v>
+        <v>34.859626529744695</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>36.08996628961804</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4124,99 +4124,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>38.434939091893625</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>38.434939091893625</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.800000000000004</v>
+        <v>38.755702436010282</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.22</v>
+        <v>39.186321351965951</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>38.434939091893625</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42</v>
+        <v>43.061891595566976</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.22</v>
+        <v>39.186321351965951</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.380000000000003</v>
+        <v>38.325083520054612</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.119999999999997</v>
+        <v>37.033226772187597</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>36.171988940276265</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>35.310751108364919</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>34.449513276453587</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.02000000000001</v>
+        <v>34.880132192409263</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>35.310751108364919</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>35.741370024320588</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>36.171988940276265</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>35.741370024320588</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>36.171988940276265</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>35.741370024320588</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>36.171988940276265</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>35.741370024320588</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>35.310751108364919</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.700000000000003</v>
+        <v>36.602607856231934</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>37.89446460409895</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4225,99 +4225,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>40.265174286745705</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>40.265174286745705</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.6</v>
+        <v>40.601212075820293</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.04</v>
+        <v>41.052336654440516</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>40.265174286745705</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44</v>
+        <v>45.112457862022552</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.04</v>
+        <v>41.052336654440516</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.160000000000004</v>
+        <v>40.150087497200069</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.840000000000003</v>
+        <v>38.796713761339397</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>37.89446460409895</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>36.992215446858488</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>36.08996628961804</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.640000000000008</v>
+        <v>36.541090868238271</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>36.992215446858488</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>37.443340025478712</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>37.89446460409895</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>37.443340025478712</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>37.89446460409895</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>37.443340025478712</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>37.89446460409895</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>37.443340025478712</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>36.992215446858488</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.400000000000006</v>
+        <v>38.345589182719173</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.720000000000006</v>
+        <v>39.698962918579852</v>
       </c>
     </row>
   </sheetData>
@@ -4421,99 +4421,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>181.19328429035568</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>174.58521192602728</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>174.58521192602728</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.4</v>
+        <v>176.6152725298183</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>174.58521192602728</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>174.58521192602728</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>187.53254090157122</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>194.53634445455856</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>203.00606037910148</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.60000000000002</v>
+        <v>198.94593917151946</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.8</v>
+        <v>200.97599977531047</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>203.00606037910148</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.20000000000002</v>
+        <v>194.88581796393743</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>182.70545434119134</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>184.73551494498236</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>188.79563615256438</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.8</v>
+        <v>190.8256967563554</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>188.79563615256438</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>184.73551494498236</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>184.73551494498236</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>202.4</v>
+        <v>186.76557554877334</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>188.79563615256438</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.60000000000002</v>
+        <v>178.64533313360934</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>162.61203058512774</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4522,99 +4522,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>186.54318174524218</v>
+        <v>191.25957786204208</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>184.28439036636212</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>184.28439036636212</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.82999999999998</v>
+        <v>186.42723211480816</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>184.28439036636212</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>184.28439036636212</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.06961070637698</v>
+        <v>197.95101539610292</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.28020796559579</v>
+        <v>205.34391914647847</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.00000000000003</v>
+        <v>214.28417484460712</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.82000000000002</v>
+        <v>209.99849134771497</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.91</v>
+        <v>212.14133309616102</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.00000000000003</v>
+        <v>214.28417484460712</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.64000000000001</v>
+        <v>205.71280785082283</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.10000000000002</v>
+        <v>192.85575736014641</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>194.99859910859246</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>199.28428260548461</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.46</v>
+        <v>201.42712435393068</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>199.28428260548461</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>194.99859910859246</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>194.99859910859246</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.28</v>
+        <v>197.14144085703853</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>199.28428260548461</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>183.92000000000002</v>
+        <v>188.57007386325427</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.41329952822622</v>
+        <v>171.64603228430147</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4623,99 +4623,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>201.32587143372854</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>193.98356880669698</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>193.98356880669698</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.4</v>
+        <v>196.23919169979808</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>193.98356880669698</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>193.98356880669698</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>208.3694898906347</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>216.15149383839841</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>225.56228931011276</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.60000000000002</v>
+        <v>221.05104352391052</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.8</v>
+        <v>223.30666641701163</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>225.56228931011276</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.20000000000002</v>
+        <v>216.53979773770826</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>203.00606037910148</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>205.26168327220262</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>209.77292905840488</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.8</v>
+        <v>212.02855195150599</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>209.77292905840488</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>205.26168327220262</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>205.26168327220262</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>202.4</v>
+        <v>207.51730616530372</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>209.77292905840488</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.60000000000002</v>
+        <v>198.49481459289925</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>180.68003398347525</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4724,99 +4724,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.17930613947823</v>
+        <v>211.39216500541497</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>203.68274724703184</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>203.68274724703184</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.97000000000003</v>
+        <v>206.05115128478801</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>203.68274724703184</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>203.68274724703184</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.39272762283775</v>
+        <v>218.78796438516645</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.36233511986907</v>
+        <v>226.95906853031835</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.00000000000003</v>
+        <v>236.8404037756184</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.38000000000002</v>
+        <v>232.10359570010604</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>228.69000000000003</v>
+        <v>234.47199973786223</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.00000000000003</v>
+        <v>236.8404037756184</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.76000000000002</v>
+        <v>227.36678762459366</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>207.90000000000003</v>
+        <v>213.15636339805658</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>215.52476743581278</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>220.26157551132513</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.14000000000001</v>
+        <v>222.6299795490813</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>220.26157551132513</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>215.52476743581278</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>215.52476743581278</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.52</v>
+        <v>217.89317147356891</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>220.26157551132513</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.28000000000003</v>
+        <v>208.4195553225442</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.03575211014481</v>
+        <v>189.71403568264904</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4825,99 +4825,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.99736833659625</v>
+        <v>221.4584585771014</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>213.38192568736667</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>213.38192568736667</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.54000000000002</v>
+        <v>215.86311086977793</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>213.38192568736667</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>213.38192568736667</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>223.55428608106811</v>
+        <v>229.20643887969817</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.90339869700568</v>
+        <v>237.76664322223826</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.00000000000006</v>
+        <v>248.11851824112406</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.16000000000005</v>
+        <v>243.15614787630159</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>239.58000000000004</v>
+        <v>245.63733305871281</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.00000000000006</v>
+        <v>248.11851824112406</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>232.32000000000005</v>
+        <v>238.19377751147911</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.80000000000004</v>
+        <v>223.30666641701166</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>225.78785159942288</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>230.75022196424536</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>227.48000000000002</v>
+        <v>233.23140714665661</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>230.75022196424536</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>225.78785159942288</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>225.78785159942288</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>222.64000000000001</v>
+        <v>228.2690367818341</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>230.75022196424536</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.96000000000004</v>
+        <v>218.34429605218918</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.84697840110408</v>
+        <v>198.7480373818228</v>
       </c>
     </row>
   </sheetData>
@@ -5021,99 +5021,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.65919958920378</v>
+        <v>148.24905078301825</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>142.84244612129507</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>142.84244612129507</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>156.6</v>
+        <v>144.50340479712403</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>142.84244612129507</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>142.84244612129507</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.2800474983151</v>
+        <v>153.43571528310369</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.49013126223562</v>
+        <v>159.16610000827521</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>166.09586758290121</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.4</v>
+        <v>162.77395023124319</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>164.43490890707221</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>166.09586758290121</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.8</v>
+        <v>159.45203287958518</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162</v>
+        <v>149.4862808246111</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>151.14723950044012</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>154.46915685209811</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.20000000000002</v>
+        <v>156.13011552792716</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>154.46915685209811</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>151.14723950044012</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>151.14723950044012</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>165.6</v>
+        <v>152.80819817626909</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>154.46915685209811</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.4</v>
+        <v>146.16436347295306</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>144.18370294296994</v>
+        <v>133.04620684237722</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5122,99 +5122,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>152.62623960974358</v>
+        <v>156.48510915985258</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>150.7781375724781</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>150.7781375724781</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>148.76999999999998</v>
+        <v>152.53137173029759</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>150.7781375724781</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>150.7781375724781</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>157.96604512339934</v>
+        <v>161.95992168772057</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.86562469912383</v>
+        <v>168.00866111984601</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171</v>
+        <v>175.32341578195127</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.57999999999998</v>
+        <v>171.81694746631223</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.29000000000002</v>
+        <v>173.57018162413178</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171</v>
+        <v>175.32341578195127</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>164.16</v>
+        <v>168.31047915067322</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>153.9</v>
+        <v>157.79107420375615</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>159.54430836157567</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>163.05077667721469</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.74</v>
+        <v>164.80401083503421</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>163.05077667721469</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>159.54430836157567</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>159.54430836157567</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>157.32</v>
+        <v>161.29754251939517</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>163.05077667721469</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>150.47999999999999</v>
+        <v>154.28460588811711</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>136.97451779582144</v>
+        <v>140.43766277806483</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5223,99 +5223,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.65919958920378</v>
+        <v>164.72116753668695</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>158.71382902366116</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>158.71382902366116</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>156.6</v>
+        <v>160.55933866347115</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>158.71382902366116</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>158.71382902366116</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.2800474983151</v>
+        <v>170.48412809233744</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.49013126223562</v>
+        <v>176.85122223141687</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>184.55096398100133</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.4</v>
+        <v>180.85994470138132</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>182.70545434119134</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>184.55096398100133</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.8</v>
+        <v>177.16892542176129</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162</v>
+        <v>166.09586758290121</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>167.94137722271122</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>171.63239650233126</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.20000000000002</v>
+        <v>173.47790614214128</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>171.63239650233126</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>167.94137722271122</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>167.94137722271122</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>165.6</v>
+        <v>169.78688686252121</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>171.63239650233126</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.4</v>
+        <v>162.40484830328117</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>144.18370294296994</v>
+        <v>147.82911871375245</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5324,99 +5324,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>168.69215956866398</v>
+        <v>172.95722591352131</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>166.64952047484422</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>166.64952047484422</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>164.43</v>
+        <v>168.58730559664474</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>166.64952047484422</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>166.64952047484422</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>174.59404987323086</v>
+        <v>179.00833449695432</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.11463782534742</v>
+        <v>185.69378334298773</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189</v>
+        <v>193.77851218005139</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.22000000000003</v>
+        <v>189.90294193645039</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>187.11</v>
+        <v>191.84072705825091</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189</v>
+        <v>193.77851218005139</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.44000000000003</v>
+        <v>186.02737169284939</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.1</v>
+        <v>174.40066096204626</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>167.94137722271122</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>180.21401632744781</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>177.66000000000003</v>
+        <v>182.15180144924835</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>180.21401632744781</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171.99</v>
+        <v>176.33844608384678</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171.99</v>
+        <v>176.33844608384678</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>173.88</v>
+        <v>178.27623120564729</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>180.21401632744781</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.32000000000002</v>
+        <v>170.52509071844526</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>151.39288809011845</v>
+        <v>155.2205746494401</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -5425,99 +5425,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.72511954812418</v>
+        <v>181.19328429035568</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>174.58521192602728</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>174.58521192602728</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.26000000000002</v>
+        <v>176.6152725298183</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>174.58521192602728</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>174.58521192602728</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>182.90805224814662</v>
+        <v>187.5325409015712</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.73914438845921</v>
+        <v>194.53634445455859</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>203.00606037910148</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.04000000000002</v>
+        <v>198.94593917151946</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.02000000000004</v>
+        <v>200.9759997753105</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>203.00606037910148</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.08000000000004</v>
+        <v>194.88581796393746</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>182.70545434119134</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>184.73551494498238</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>188.79563615256438</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>186.12000000000003</v>
+        <v>190.82569675635543</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>188.79563615256438</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>184.73551494498238</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>184.73551494498238</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>182.16</v>
+        <v>186.76557554877334</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>188.79563615256438</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>174.24</v>
+        <v>178.64533313360931</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.60207323726695</v>
+        <v>162.61203058512771</v>
       </c>
     </row>
   </sheetData>
@@ -5621,99 +5621,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.51022176578198</v>
+        <v>164.72116753668695</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.09531756474857</v>
+        <v>156.95627412614451</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.56503738887642</v>
+        <v>153.69869107824337</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.7510189672326</v>
+        <v>149.25653237656005</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.35569177444719</v>
+        <v>150.73725194378781</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.26862222792772</v>
+        <v>157.11619183940505</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.75560833146122</v>
+        <v>170.48412809233744</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.65570140248403</v>
+        <v>176.85122223141687</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200</v>
+        <v>184.55096398100133</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>189.62739497416479</v>
+        <v>174.979592698441</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.32045315960079</v>
+        <v>171.00534138000168</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.31092140312595</v>
+        <v>155.30971396738721</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.65095157097468</v>
+        <v>151.00970434415771</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.86328187682534</v>
+        <v>129.05951747957315</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.51173015822073</v>
+        <v>134.27165035621491</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>131.94903559164285</v>
+        <v>121.75660857400571</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>128.37382457716873</v>
+        <v>118.45756537822226</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>127.69344330690973</v>
+        <v>117.82974028171766</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>129.37514040887064</v>
+        <v>119.38153438817237</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.94309830225617</v>
+        <v>135.59245221018207</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.09942552713505</v>
+        <v>164.34210332747668</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.86193395166728</v>
+        <v>164.12295683152695</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.41362046278766</v>
+        <v>155.40448001968977</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.20411438107772</v>
+        <v>147.82911871375245</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5722,99 +5722,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.58471067749286</v>
+        <v>173.87234351094733</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.59055168651113</v>
+        <v>165.67606713315251</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>158.2367855194326</v>
+        <v>162.23750724925688</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>153.66346801887096</v>
+        <v>157.54856195303557</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>155.18790718572484</v>
+        <v>159.11154371844268</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.75519111653134</v>
+        <v>165.84486916381644</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>175.51782791488816</v>
+        <v>179.95546854191176</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>182.07291633235982</v>
+        <v>186.67629013316227</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>190</v>
+        <v>194.80379531327918</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>180.14602522545653</v>
+        <v>184.70068118168768</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.05443050162074</v>
+        <v>180.50563812333507</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>159.89537533296965</v>
+        <v>163.93803141001985</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>155.46840399242595</v>
+        <v>159.39913236327757</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>132.87011778298407</v>
+        <v>136.22949067288278</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>138.23614365030969</v>
+        <v>141.73118648711571</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>125.35158381206071</v>
+        <v>128.52086460589493</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>121.95513334831028</v>
+        <v>125.03854123256792</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>121.30877114156424</v>
+        <v>124.37583696403532</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>122.9063833884271</v>
+        <v>126.01384185418195</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.59594338714336</v>
+        <v>143.12536622185888</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.19445425077831</v>
+        <v>173.47222017900313</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.96883725408392</v>
+        <v>173.24089887772288</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>159.99293943964827</v>
+        <v>164.03806224300587</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>152.19390866202383</v>
+        <v>156.04184753118315</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5823,99 +5823,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.51022176578198</v>
+        <v>183.02351948520771</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.09531756474857</v>
+        <v>174.39586014016055</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.56503738887642</v>
+        <v>170.77632342027042</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.7510189672326</v>
+        <v>165.84059152951116</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.35569177444719</v>
+        <v>167.48583549309757</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.26862222792772</v>
+        <v>174.57354648822783</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.75560833146122</v>
+        <v>189.42680899148604</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.65570140248403</v>
+        <v>196.50135803490764</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200</v>
+        <v>205.05662664555703</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>189.62739497416479</v>
+        <v>194.42176966493443</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.32045315960079</v>
+        <v>190.0059348666685</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.31092140312595</v>
+        <v>172.56634885265245</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.65095157097468</v>
+        <v>167.78856038239746</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.86328187682534</v>
+        <v>143.39946386619238</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.51173015822073</v>
+        <v>149.19072261801657</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>131.94903559164285</v>
+        <v>135.28512063778413</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>128.37382457716873</v>
+        <v>131.61951708691362</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>127.69344330690973</v>
+        <v>130.92193364635295</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>129.37514040887064</v>
+        <v>132.64614932019154</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.94309830225617</v>
+        <v>150.65828023353566</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.09942552713505</v>
+        <v>182.60233703052961</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.86193395166728</v>
+        <v>182.35884092391882</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.41362046278766</v>
+        <v>172.67164446632196</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.20411438107772</v>
+        <v>164.25457634861385</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5924,99 +5924,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.43573285407109</v>
+        <v>192.17469545946813</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.600083442986</v>
+        <v>183.11565314716856</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>174.89328925832024</v>
+        <v>179.31513959128392</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.83856991559423</v>
+        <v>174.13262110598671</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>171.52347636316955</v>
+        <v>175.86012726775243</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.78205333932411</v>
+        <v>183.30222381263923</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>193.99338874803428</v>
+        <v>198.89814944106035</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.23848647260823</v>
+        <v>206.32642593665304</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>210</v>
+        <v>215.30945797783488</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>199.10876472287305</v>
+        <v>204.14285814818118</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>194.58647581758083</v>
+        <v>199.50623161000192</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.72646747328224</v>
+        <v>181.19466629528509</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>171.83349914952342</v>
+        <v>176.17798840151733</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.85644597066661</v>
+        <v>150.56943705950201</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>152.78731666613177</v>
+        <v>156.65025874891739</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>138.546487371225</v>
+        <v>142.04937666967334</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>134.79251580602718</v>
+        <v>138.20049294125931</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>134.07811547225521</v>
+        <v>137.46803032867061</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>135.84389742931418</v>
+        <v>139.27845678620113</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>154.29025321736898</v>
+        <v>158.19119424521244</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.0043968034918</v>
+        <v>191.73245388205609</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>186.75503064925064</v>
+        <v>191.47678297011475</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.83430148592706</v>
+        <v>181.30522668963809</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.2143201001316</v>
+        <v>172.46730516604453</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6025,99 +6025,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>201.32587143372854</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.10484932122344</v>
+        <v>191.83544615417659</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>183.22154112776408</v>
+        <v>187.85395576229746</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.92612086395587</v>
+        <v>182.42465068246227</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>179.69126095189193</v>
+        <v>184.23441904240732</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.29548445072052</v>
+        <v>192.03090113705065</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>208.3694898906347</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>216.15149383839841</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>225.56228931011276</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>208.59013447158128</v>
+        <v>213.86394663142789</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.85249847556088</v>
+        <v>209.00652835333537</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.14201354343857</v>
+        <v>189.82298373791772</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>180.01604672807215</v>
+        <v>184.56741642063722</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>153.84961006450789</v>
+        <v>157.73941025281164</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.06290317404282</v>
+        <v>164.10979487981822</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.14393915080714</v>
+        <v>148.81363270156254</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>141.21120703488563</v>
+        <v>144.78146879560501</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>140.46278763760071</v>
+        <v>144.01412701098826</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>142.3126544497577</v>
+        <v>145.91076425221067</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.6374081324818</v>
+        <v>165.72410825688922</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.90936807984858</v>
+        <v>200.8625707335826</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.64812734683403</v>
+        <v>200.59472501631072</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.25498250906645</v>
+        <v>189.93880891295419</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>180.68003398347525</v>
       </c>
     </row>
   </sheetData>
@@ -6221,99 +6221,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.851022176578198</v>
+        <v>16.472116753668697</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.009531756474857</v>
+        <v>15.695627412614447</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.656503738887643</v>
+        <v>15.369869107824337</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175101896723259</v>
+        <v>14.925653237656004</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.335569177444722</v>
+        <v>15.073725194378783</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.026862222792772</v>
+        <v>15.711619183940506</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.475560833146123</v>
+        <v>17.048412809233746</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.165570140248402</v>
+        <v>17.68512222314169</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20</v>
+        <v>18.455096398100132</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.962739497416479</v>
+        <v>17.497959269844099</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.53204531596008</v>
+        <v>17.100534138000167</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.831092140312595</v>
+        <v>15.530971396738723</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.365095157097468</v>
+        <v>15.100970434415771</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.986328187682535</v>
+        <v>12.905951747957317</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.551173015822073</v>
+        <v>13.42716503562149</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.194903559164286</v>
+        <v>12.175660857400572</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.837382457716874</v>
+        <v>11.845756537822226</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.769344330690974</v>
+        <v>11.782974028171767</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.937514040887065</v>
+        <v>11.938153438817238</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.694309830225619</v>
+        <v>13.559245221018209</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.809942552713505</v>
+        <v>16.434210332747668</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.78619339516673</v>
+        <v>16.412295683152696</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.841362046278768</v>
+        <v>15.540448001968979</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.020411438107772</v>
+        <v>14.782911871375246</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6322,99 +6322,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.958471067749286</v>
+        <v>17.387234351094733</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.159055168651115</v>
+        <v>16.567606713315254</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.82367855194326</v>
+        <v>16.22375072492569</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.366346801887095</v>
+        <v>15.754856195303558</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.518790718572484</v>
+        <v>15.911154371844269</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175519111653134</v>
+        <v>16.584486916381646</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.551782791488815</v>
+        <v>17.995546854191176</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.207291633235982</v>
+        <v>18.667629013316226</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19</v>
+        <v>19.48037953132792</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.014602522545655</v>
+        <v>18.470068118168772</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.605443050162076</v>
+        <v>18.050563812333507</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.989537533296964</v>
+        <v>16.393803141001982</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.546840399242594</v>
+        <v>15.939913236327758</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.287011778298407</v>
+        <v>13.622949067288276</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.823614365030968</v>
+        <v>14.173118648711572</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.535158381206072</v>
+        <v>12.852086460589494</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.195513334831031</v>
+        <v>12.503854123256794</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.130877114156425</v>
+        <v>12.437583696403532</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.290638338842712</v>
+        <v>12.601384185418196</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.959594338714338</v>
+        <v>14.312536622185888</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.919445425077829</v>
+        <v>17.347222017900311</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.896883725408394</v>
+        <v>17.324089887772288</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.999293943964828</v>
+        <v>16.403806224300588</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.219390866202382</v>
+        <v>15.604184753118313</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6423,99 +6423,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.851022176578198</v>
+        <v>18.302351948520773</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.009531756474857</v>
+        <v>17.439586014016054</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.656503738887643</v>
+        <v>17.077632342027041</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175101896723259</v>
+        <v>16.584059152951113</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.335569177444722</v>
+        <v>16.748583549309757</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.026862222792772</v>
+        <v>17.457354648822786</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.475560833146123</v>
+        <v>18.942680899148606</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.165570140248402</v>
+        <v>19.650135803490762</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20</v>
+        <v>20.505662664555704</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.962739497416479</v>
+        <v>19.442176966493445</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.53204531596008</v>
+        <v>19.000593486666851</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.831092140312595</v>
+        <v>17.256634885265246</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.365095157097468</v>
+        <v>16.778856038239745</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.986328187682535</v>
+        <v>14.339946386619239</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.551173015822073</v>
+        <v>14.919072261801656</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.194903559164286</v>
+        <v>13.528512063778415</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.837382457716874</v>
+        <v>13.161951708691362</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.769344330690974</v>
+        <v>13.092193364635296</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.937514040887065</v>
+        <v>13.264614932019153</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.694309830225619</v>
+        <v>15.065828023353566</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.809942552713505</v>
+        <v>18.260233703052961</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.78619339516673</v>
+        <v>18.235884092391885</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.841362046278768</v>
+        <v>17.267164446632197</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.020411438107772</v>
+        <v>16.425457634861385</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6524,99 +6524,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.743573285407109</v>
+        <v>19.217469545946813</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.860008344298599</v>
+        <v>18.311565314716855</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.489328925832027</v>
+        <v>17.931513959128395</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.983856991559424</v>
+        <v>17.413262110598673</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.152347636316957</v>
+        <v>17.586012726775245</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.87820533393241</v>
+        <v>18.330222381263923</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.39933887480343</v>
+        <v>19.889814944106039</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.123848647260822</v>
+        <v>20.632642593665302</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21</v>
+        <v>21.530945797783488</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.910876472287303</v>
+        <v>20.414285814818115</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.458647581758083</v>
+        <v>19.950623161000191</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.672646747328226</v>
+        <v>18.11946662952851</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.183349914952341</v>
+        <v>17.617798840151732</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.685644597066663</v>
+        <v>15.056943705950204</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.278731666613178</v>
+        <v>15.665025874891739</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.854648737122501</v>
+        <v>14.204937666967336</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.479251580602718</v>
+        <v>13.82004929412593</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.407811547225522</v>
+        <v>13.746803032867062</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.584389742931418</v>
+        <v>13.927845678620111</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.4290253217369</v>
+        <v>15.819119424521245</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.700439680349181</v>
+        <v>19.173245388205611</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.675503064925067</v>
+        <v>19.147678297011478</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.683430148592706</v>
+        <v>18.13052266896381</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.821432010013162</v>
+        <v>17.246730516604455</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6625,99 +6625,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.63612439423602</v>
+        <v>20.132587143372852</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.710484932122345</v>
+        <v>19.183544615417663</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.32215411277641</v>
+        <v>18.78539557622975</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.792612086395586</v>
+        <v>18.242465068246226</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.969126095189196</v>
+        <v>18.423441904240736</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.729548445072052</v>
+        <v>19.203090113705066</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.323116916460737</v>
+        <v>20.836948989063469</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.082127154273245</v>
+        <v>21.615149383839842</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22</v>
+        <v>22.556228931011276</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.859013447158127</v>
+        <v>21.386394663142788</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.385249847556089</v>
+        <v>20.900652835333538</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.514201354343857</v>
+        <v>18.982298373791775</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.001604672807215</v>
+        <v>18.456741642063719</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.384961006450789</v>
+        <v>15.773941025281164</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.006290317404282</v>
+        <v>16.410979487981823</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.514393915080717</v>
+        <v>14.881363270156257</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.121120703488563</v>
+        <v>14.4781468795605</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.046278763760071</v>
+        <v>14.401412701098828</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.231265444975772</v>
+        <v>14.59107642522107</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.163740813248182</v>
+        <v>16.572410825688927</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.590936807984857</v>
+        <v>20.086257073358258</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.564812734683404</v>
+        <v>20.059472501631074</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.525498250906647</v>
+        <v>18.993880891295422</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.622452581918552</v>
+        <v>18.068003398347525</v>
       </c>
     </row>
   </sheetData>
@@ -6821,99 +6821,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>32.944233507337394</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>32.944233507337394</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36</v>
+        <v>33.219173516580241</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>33.588275444542241</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>32.944233507337394</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40</v>
+        <v>36.910192796200263</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>33.588275444542241</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.6</v>
+        <v>32.850071588618235</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.4</v>
+        <v>31.74276580473223</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>31.004561948808227</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>30.266358092884218</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32</v>
+        <v>29.528154236960216</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.400000000000006</v>
+        <v>29.897256164922222</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>30.266358092884218</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>30.635460020846217</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>31.004561948808227</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>30.635460020846217</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>31.004561948808227</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>30.635460020846217</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>31.004561948808227</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>30.635460020846217</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>30.266358092884218</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34</v>
+        <v>31.373663876770227</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>32.480969660656235</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6922,99 +6922,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>34.774468702189466</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>34.774468702189466</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.199999999999996</v>
+        <v>35.064683156390252</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.58</v>
+        <v>35.454290747016813</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>34.774468702189466</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38</v>
+        <v>38.960759062655839</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.58</v>
+        <v>35.454290747016813</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.82</v>
+        <v>34.675075565763699</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.68</v>
+        <v>33.506252793884023</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>32.727037612630902</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>31.947822431377784</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.4</v>
+        <v>31.168607250124669</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.780000000000005</v>
+        <v>31.558214840751234</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>31.947822431377784</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>32.337430022004341</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>32.727037612630902</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>32.337430022004341</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>32.727037612630902</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>32.337430022004341</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>32.727037612630902</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>32.337430022004341</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>31.947822431377784</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.299999999999997</v>
+        <v>33.116645203257455</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.44</v>
+        <v>34.285467975137138</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7023,99 +7023,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>36.604703897041546</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>36.604703897041546</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36</v>
+        <v>36.910192796200263</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>37.320306049491379</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>36.604703897041546</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40</v>
+        <v>41.011325329111408</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>37.320306049491379</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.6</v>
+        <v>36.500079542909155</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.4</v>
+        <v>35.26973978303581</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>34.449513276453587</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>33.629286769871349</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32</v>
+        <v>32.809060263289126</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.400000000000006</v>
+        <v>33.219173516580248</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>33.629286769871349</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>34.039400023162464</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>34.449513276453587</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>34.039400023162464</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>34.449513276453587</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>34.039400023162464</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>34.449513276453587</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>34.039400023162464</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>33.629286769871349</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34</v>
+        <v>34.859626529744695</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>36.08996628961804</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -7124,99 +7124,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>38.434939091893625</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>38.434939091893625</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.800000000000004</v>
+        <v>38.755702436010282</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.22</v>
+        <v>39.186321351965951</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>38.434939091893625</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42</v>
+        <v>43.061891595566976</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.22</v>
+        <v>39.186321351965951</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.380000000000003</v>
+        <v>38.325083520054612</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.119999999999997</v>
+        <v>37.033226772187597</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>36.171988940276265</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>35.310751108364919</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>34.449513276453587</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.02000000000001</v>
+        <v>34.880132192409263</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>35.310751108364919</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>35.741370024320588</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>36.171988940276265</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>35.741370024320588</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>36.171988940276265</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>35.741370024320588</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>36.171988940276265</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>35.741370024320588</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>35.310751108364919</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.700000000000003</v>
+        <v>36.602607856231934</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>37.89446460409895</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -7225,99 +7225,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>40.265174286745705</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>40.265174286745705</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.6</v>
+        <v>40.601212075820293</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.04</v>
+        <v>41.052336654440516</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>40.265174286745705</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44</v>
+        <v>45.112457862022552</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.04</v>
+        <v>41.052336654440516</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.160000000000004</v>
+        <v>40.150087497200069</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.840000000000003</v>
+        <v>38.796713761339397</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>37.89446460409895</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>36.992215446858488</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>36.08996628961804</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.640000000000008</v>
+        <v>36.541090868238271</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>36.992215446858488</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>37.443340025478712</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>37.89446460409895</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>37.443340025478712</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>37.89446460409895</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>37.443340025478712</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>37.89446460409895</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>37.443340025478712</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>36.992215446858488</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.400000000000006</v>
+        <v>38.345589182719173</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.720000000000006</v>
+        <v>39.698962918579852</v>
       </c>
     </row>
   </sheetData>
